--- a/Laptop Memory Data.xlsx
+++ b/Laptop Memory Data.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="CT-Log 2016-11-21 22-57-40" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -684,6 +687,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Laptop, Memory Bound Computation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4533,6 +4591,2117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CT-Log 2016-11-21 22-56-45"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="Q9" t="str">
+            <v>Load</v>
+          </cell>
+          <cell r="R9" t="str">
+            <v>Temp</v>
+          </cell>
+          <cell r="S9" t="str">
+            <v>Power</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Q10">
+            <v>3</v>
+          </cell>
+          <cell r="R10">
+            <v>54.5</v>
+          </cell>
+          <cell r="S10">
+            <v>8.4</v>
+          </cell>
+          <cell r="T10">
+            <v>42696.835011574076</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Q11">
+            <v>100</v>
+          </cell>
+          <cell r="R11">
+            <v>68</v>
+          </cell>
+          <cell r="S11">
+            <v>27.4</v>
+          </cell>
+          <cell r="T11">
+            <v>42696.835069444445</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Q12">
+            <v>100</v>
+          </cell>
+          <cell r="R12">
+            <v>67</v>
+          </cell>
+          <cell r="S12">
+            <v>27.5</v>
+          </cell>
+          <cell r="T12">
+            <v>42696.835127314815</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Q13">
+            <v>100</v>
+          </cell>
+          <cell r="R13">
+            <v>70</v>
+          </cell>
+          <cell r="S13">
+            <v>27.5</v>
+          </cell>
+          <cell r="T13">
+            <v>42696.835185185184</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Q14">
+            <v>100</v>
+          </cell>
+          <cell r="R14">
+            <v>70.5</v>
+          </cell>
+          <cell r="S14">
+            <v>27.3</v>
+          </cell>
+          <cell r="T14">
+            <v>42696.835243055553</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="Q15">
+            <v>100</v>
+          </cell>
+          <cell r="R15">
+            <v>71</v>
+          </cell>
+          <cell r="S15">
+            <v>27.4</v>
+          </cell>
+          <cell r="T15">
+            <v>42696.835300925923</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="Q16">
+            <v>100</v>
+          </cell>
+          <cell r="R16">
+            <v>72</v>
+          </cell>
+          <cell r="S16">
+            <v>27.4</v>
+          </cell>
+          <cell r="T16">
+            <v>42696.835358796299</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Q17">
+            <v>100</v>
+          </cell>
+          <cell r="R17">
+            <v>73</v>
+          </cell>
+          <cell r="S17">
+            <v>27.5</v>
+          </cell>
+          <cell r="T17">
+            <v>42696.835416666669</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Q18">
+            <v>100</v>
+          </cell>
+          <cell r="R18">
+            <v>72</v>
+          </cell>
+          <cell r="S18">
+            <v>27.4</v>
+          </cell>
+          <cell r="T18">
+            <v>42696.835474537038</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Q19">
+            <v>100</v>
+          </cell>
+          <cell r="R19">
+            <v>72</v>
+          </cell>
+          <cell r="S19">
+            <v>27.5</v>
+          </cell>
+          <cell r="T19">
+            <v>42696.835532407407</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Q20">
+            <v>100</v>
+          </cell>
+          <cell r="R20">
+            <v>73.5</v>
+          </cell>
+          <cell r="S20">
+            <v>27.4</v>
+          </cell>
+          <cell r="T20">
+            <v>42696.835590277777</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="Q21">
+            <v>100</v>
+          </cell>
+          <cell r="R21">
+            <v>74</v>
+          </cell>
+          <cell r="S21">
+            <v>27.5</v>
+          </cell>
+          <cell r="T21">
+            <v>42696.835648148146</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Q22">
+            <v>100</v>
+          </cell>
+          <cell r="R22">
+            <v>74.5</v>
+          </cell>
+          <cell r="S22">
+            <v>27.4</v>
+          </cell>
+          <cell r="T22">
+            <v>42696.835706018515</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Q23">
+            <v>100</v>
+          </cell>
+          <cell r="R23">
+            <v>75</v>
+          </cell>
+          <cell r="S23">
+            <v>27.6</v>
+          </cell>
+          <cell r="T23">
+            <v>42696.835763888892</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Q24">
+            <v>100</v>
+          </cell>
+          <cell r="R24">
+            <v>75.5</v>
+          </cell>
+          <cell r="S24">
+            <v>27.5</v>
+          </cell>
+          <cell r="T24">
+            <v>42696.835821759261</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="Q25">
+            <v>100</v>
+          </cell>
+          <cell r="R25">
+            <v>77.5</v>
+          </cell>
+          <cell r="S25">
+            <v>27.5</v>
+          </cell>
+          <cell r="T25">
+            <v>42696.835879629631</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Q26">
+            <v>100</v>
+          </cell>
+          <cell r="R26">
+            <v>78</v>
+          </cell>
+          <cell r="S26">
+            <v>27.6</v>
+          </cell>
+          <cell r="T26">
+            <v>42696.8359375</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Q27">
+            <v>100</v>
+          </cell>
+          <cell r="R27">
+            <v>78</v>
+          </cell>
+          <cell r="S27">
+            <v>27.6</v>
+          </cell>
+          <cell r="T27">
+            <v>42696.835995370369</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Q28">
+            <v>100</v>
+          </cell>
+          <cell r="R28">
+            <v>79</v>
+          </cell>
+          <cell r="S28">
+            <v>27.6</v>
+          </cell>
+          <cell r="T28">
+            <v>42696.836053240739</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="Q29">
+            <v>100</v>
+          </cell>
+          <cell r="R29">
+            <v>78</v>
+          </cell>
+          <cell r="S29">
+            <v>27.7</v>
+          </cell>
+          <cell r="T29">
+            <v>42696.836111111108</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="Q30">
+            <v>100</v>
+          </cell>
+          <cell r="R30">
+            <v>81</v>
+          </cell>
+          <cell r="S30">
+            <v>27.7</v>
+          </cell>
+          <cell r="T30">
+            <v>42696.836168981485</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Q31">
+            <v>100</v>
+          </cell>
+          <cell r="R31">
+            <v>79.5</v>
+          </cell>
+          <cell r="S31">
+            <v>27.7</v>
+          </cell>
+          <cell r="T31">
+            <v>42696.836226851854</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Q32">
+            <v>100</v>
+          </cell>
+          <cell r="R32">
+            <v>80</v>
+          </cell>
+          <cell r="S32">
+            <v>27.8</v>
+          </cell>
+          <cell r="T32">
+            <v>42696.836284722223</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="Q33">
+            <v>100</v>
+          </cell>
+          <cell r="R33">
+            <v>81.5</v>
+          </cell>
+          <cell r="S33">
+            <v>27.7</v>
+          </cell>
+          <cell r="T33">
+            <v>42696.836342592593</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="Q34">
+            <v>100</v>
+          </cell>
+          <cell r="R34">
+            <v>82.5</v>
+          </cell>
+          <cell r="S34">
+            <v>27.8</v>
+          </cell>
+          <cell r="T34">
+            <v>42696.836400462962</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="Q35">
+            <v>100</v>
+          </cell>
+          <cell r="R35">
+            <v>82.5</v>
+          </cell>
+          <cell r="S35">
+            <v>27.8</v>
+          </cell>
+          <cell r="T35">
+            <v>42696.836458333331</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="Q36">
+            <v>100</v>
+          </cell>
+          <cell r="R36">
+            <v>84</v>
+          </cell>
+          <cell r="S36">
+            <v>27.9</v>
+          </cell>
+          <cell r="T36">
+            <v>42696.836516203701</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Q37">
+            <v>100</v>
+          </cell>
+          <cell r="R37">
+            <v>83</v>
+          </cell>
+          <cell r="S37">
+            <v>27.9</v>
+          </cell>
+          <cell r="T37">
+            <v>42696.836574074077</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="Q38">
+            <v>100</v>
+          </cell>
+          <cell r="R38">
+            <v>84</v>
+          </cell>
+          <cell r="S38">
+            <v>28</v>
+          </cell>
+          <cell r="T38">
+            <v>42696.836631944447</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Q39">
+            <v>100</v>
+          </cell>
+          <cell r="R39">
+            <v>84.5</v>
+          </cell>
+          <cell r="S39">
+            <v>28</v>
+          </cell>
+          <cell r="T39">
+            <v>42696.836689814816</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Q40">
+            <v>100</v>
+          </cell>
+          <cell r="R40">
+            <v>86</v>
+          </cell>
+          <cell r="S40">
+            <v>28</v>
+          </cell>
+          <cell r="T40">
+            <v>42696.836747685185</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="Q41">
+            <v>100</v>
+          </cell>
+          <cell r="R41">
+            <v>85</v>
+          </cell>
+          <cell r="S41">
+            <v>28</v>
+          </cell>
+          <cell r="T41">
+            <v>42696.836805555555</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Q42">
+            <v>100</v>
+          </cell>
+          <cell r="R42">
+            <v>85.5</v>
+          </cell>
+          <cell r="S42">
+            <v>28</v>
+          </cell>
+          <cell r="T42">
+            <v>42696.836863425924</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Q43">
+            <v>100</v>
+          </cell>
+          <cell r="R43">
+            <v>86.5</v>
+          </cell>
+          <cell r="S43">
+            <v>28.1</v>
+          </cell>
+          <cell r="T43">
+            <v>42696.836921296293</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Q44">
+            <v>100</v>
+          </cell>
+          <cell r="R44">
+            <v>87</v>
+          </cell>
+          <cell r="S44">
+            <v>28</v>
+          </cell>
+          <cell r="T44">
+            <v>42696.83697916667</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Q45">
+            <v>100</v>
+          </cell>
+          <cell r="R45">
+            <v>86.5</v>
+          </cell>
+          <cell r="S45">
+            <v>28.1</v>
+          </cell>
+          <cell r="T45">
+            <v>42696.837037037039</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="Q46">
+            <v>100</v>
+          </cell>
+          <cell r="R46">
+            <v>87</v>
+          </cell>
+          <cell r="S46">
+            <v>28.1</v>
+          </cell>
+          <cell r="T46">
+            <v>42696.837094907409</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Q47">
+            <v>100</v>
+          </cell>
+          <cell r="R47">
+            <v>86.5</v>
+          </cell>
+          <cell r="S47">
+            <v>28.1</v>
+          </cell>
+          <cell r="T47">
+            <v>42696.837152777778</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Q48">
+            <v>100</v>
+          </cell>
+          <cell r="R48">
+            <v>88</v>
+          </cell>
+          <cell r="S48">
+            <v>28.1</v>
+          </cell>
+          <cell r="T48">
+            <v>42696.837210648147</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Q49">
+            <v>100</v>
+          </cell>
+          <cell r="R49">
+            <v>88</v>
+          </cell>
+          <cell r="S49">
+            <v>28.1</v>
+          </cell>
+          <cell r="T49">
+            <v>42696.837268518517</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="Q50">
+            <v>100</v>
+          </cell>
+          <cell r="R50">
+            <v>89</v>
+          </cell>
+          <cell r="S50">
+            <v>28.2</v>
+          </cell>
+          <cell r="T50">
+            <v>42696.837326388886</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Q51">
+            <v>100</v>
+          </cell>
+          <cell r="R51">
+            <v>88.5</v>
+          </cell>
+          <cell r="S51">
+            <v>28.2</v>
+          </cell>
+          <cell r="T51">
+            <v>42696.837384259263</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="Q52">
+            <v>100</v>
+          </cell>
+          <cell r="R52">
+            <v>89</v>
+          </cell>
+          <cell r="S52">
+            <v>28</v>
+          </cell>
+          <cell r="T52">
+            <v>42696.837442129632</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="Q53">
+            <v>100</v>
+          </cell>
+          <cell r="R53">
+            <v>90</v>
+          </cell>
+          <cell r="S53">
+            <v>28.2</v>
+          </cell>
+          <cell r="T53">
+            <v>42696.837500000001</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="Q54">
+            <v>100</v>
+          </cell>
+          <cell r="R54">
+            <v>90.5</v>
+          </cell>
+          <cell r="S54">
+            <v>28.3</v>
+          </cell>
+          <cell r="T54">
+            <v>42696.837557870371</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="Q55">
+            <v>100</v>
+          </cell>
+          <cell r="R55">
+            <v>90.5</v>
+          </cell>
+          <cell r="S55">
+            <v>28.3</v>
+          </cell>
+          <cell r="T55">
+            <v>42696.83761574074</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="Q56">
+            <v>100</v>
+          </cell>
+          <cell r="R56">
+            <v>90.5</v>
+          </cell>
+          <cell r="S56">
+            <v>28.3</v>
+          </cell>
+          <cell r="T56">
+            <v>42696.837673611109</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="Q57">
+            <v>100</v>
+          </cell>
+          <cell r="R57">
+            <v>90.5</v>
+          </cell>
+          <cell r="S57">
+            <v>28.2</v>
+          </cell>
+          <cell r="T57">
+            <v>42696.837731481479</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="Q58">
+            <v>100</v>
+          </cell>
+          <cell r="R58">
+            <v>91</v>
+          </cell>
+          <cell r="S58">
+            <v>28.3</v>
+          </cell>
+          <cell r="T58">
+            <v>42696.837789351855</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="Q59">
+            <v>100</v>
+          </cell>
+          <cell r="R59">
+            <v>91</v>
+          </cell>
+          <cell r="S59">
+            <v>28.2</v>
+          </cell>
+          <cell r="T59">
+            <v>42696.837847222225</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="Q60">
+            <v>100</v>
+          </cell>
+          <cell r="R60">
+            <v>90.5</v>
+          </cell>
+          <cell r="S60">
+            <v>28.2</v>
+          </cell>
+          <cell r="T60">
+            <v>42696.837905092594</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="Q61">
+            <v>100</v>
+          </cell>
+          <cell r="R61">
+            <v>91.5</v>
+          </cell>
+          <cell r="S61">
+            <v>28.2</v>
+          </cell>
+          <cell r="T61">
+            <v>42696.837962962964</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Q62">
+            <v>100</v>
+          </cell>
+          <cell r="R62">
+            <v>93</v>
+          </cell>
+          <cell r="S62">
+            <v>28.3</v>
+          </cell>
+          <cell r="T62">
+            <v>42696.838020833333</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="Q63">
+            <v>100</v>
+          </cell>
+          <cell r="R63">
+            <v>92</v>
+          </cell>
+          <cell r="S63">
+            <v>28.2</v>
+          </cell>
+          <cell r="T63">
+            <v>42696.838078703702</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="Q64">
+            <v>100</v>
+          </cell>
+          <cell r="R64">
+            <v>92</v>
+          </cell>
+          <cell r="S64">
+            <v>28.3</v>
+          </cell>
+          <cell r="T64">
+            <v>42696.838136574072</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="Q65">
+            <v>100</v>
+          </cell>
+          <cell r="R65">
+            <v>92.5</v>
+          </cell>
+          <cell r="S65">
+            <v>28.3</v>
+          </cell>
+          <cell r="T65">
+            <v>42696.838194444441</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="Q66">
+            <v>100</v>
+          </cell>
+          <cell r="R66">
+            <v>93.5</v>
+          </cell>
+          <cell r="S66">
+            <v>28.3</v>
+          </cell>
+          <cell r="T66">
+            <v>42696.838252314818</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="Q67">
+            <v>100</v>
+          </cell>
+          <cell r="R67">
+            <v>93</v>
+          </cell>
+          <cell r="S67">
+            <v>28.3</v>
+          </cell>
+          <cell r="T67">
+            <v>42696.838310185187</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="Q68">
+            <v>100</v>
+          </cell>
+          <cell r="R68">
+            <v>93.5</v>
+          </cell>
+          <cell r="S68">
+            <v>28.4</v>
+          </cell>
+          <cell r="T68">
+            <v>42696.838368055556</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="Q69">
+            <v>100</v>
+          </cell>
+          <cell r="R69">
+            <v>93.5</v>
+          </cell>
+          <cell r="S69">
+            <v>28.3</v>
+          </cell>
+          <cell r="T69">
+            <v>42696.838425925926</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Q70">
+            <v>100</v>
+          </cell>
+          <cell r="R70">
+            <v>95</v>
+          </cell>
+          <cell r="S70">
+            <v>28.3</v>
+          </cell>
+          <cell r="T70">
+            <v>42696.838483796295</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="Q71">
+            <v>100</v>
+          </cell>
+          <cell r="R71">
+            <v>93</v>
+          </cell>
+          <cell r="S71">
+            <v>28.4</v>
+          </cell>
+          <cell r="T71">
+            <v>42696.838541666664</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="Q72">
+            <v>100</v>
+          </cell>
+          <cell r="R72">
+            <v>94.5</v>
+          </cell>
+          <cell r="S72">
+            <v>28.4</v>
+          </cell>
+          <cell r="T72">
+            <v>42696.838599537034</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="Q73">
+            <v>100</v>
+          </cell>
+          <cell r="R73">
+            <v>95.5</v>
+          </cell>
+          <cell r="S73">
+            <v>28.3</v>
+          </cell>
+          <cell r="T73">
+            <v>42696.83865740741</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="Q74">
+            <v>100</v>
+          </cell>
+          <cell r="R74">
+            <v>95</v>
+          </cell>
+          <cell r="S74">
+            <v>28.4</v>
+          </cell>
+          <cell r="T74">
+            <v>42696.83871527778</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="Q75">
+            <v>100</v>
+          </cell>
+          <cell r="R75">
+            <v>94.5</v>
+          </cell>
+          <cell r="S75">
+            <v>28.3</v>
+          </cell>
+          <cell r="T75">
+            <v>42696.838773148149</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="Q76">
+            <v>100</v>
+          </cell>
+          <cell r="R76">
+            <v>96</v>
+          </cell>
+          <cell r="S76">
+            <v>28.4</v>
+          </cell>
+          <cell r="T76">
+            <v>42696.838831018518</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="Q77">
+            <v>100</v>
+          </cell>
+          <cell r="R77">
+            <v>95.5</v>
+          </cell>
+          <cell r="S77">
+            <v>28.4</v>
+          </cell>
+          <cell r="T77">
+            <v>42696.838888888888</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="Q78">
+            <v>100</v>
+          </cell>
+          <cell r="R78">
+            <v>95.5</v>
+          </cell>
+          <cell r="S78">
+            <v>28.4</v>
+          </cell>
+          <cell r="T78">
+            <v>42696.838946759257</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="Q79">
+            <v>100</v>
+          </cell>
+          <cell r="R79">
+            <v>95</v>
+          </cell>
+          <cell r="S79">
+            <v>28.5</v>
+          </cell>
+          <cell r="T79">
+            <v>42696.839004629626</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="Q80">
+            <v>100</v>
+          </cell>
+          <cell r="R80">
+            <v>97</v>
+          </cell>
+          <cell r="S80">
+            <v>28.5</v>
+          </cell>
+          <cell r="T80">
+            <v>42696.839062500003</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="Q81">
+            <v>100</v>
+          </cell>
+          <cell r="R81">
+            <v>96</v>
+          </cell>
+          <cell r="S81">
+            <v>28.5</v>
+          </cell>
+          <cell r="T81">
+            <v>42696.839120370372</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="Q82">
+            <v>100</v>
+          </cell>
+          <cell r="R82">
+            <v>96.5</v>
+          </cell>
+          <cell r="S82">
+            <v>28.5</v>
+          </cell>
+          <cell r="T82">
+            <v>42696.839178240742</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="Q83">
+            <v>100</v>
+          </cell>
+          <cell r="R83">
+            <v>96.5</v>
+          </cell>
+          <cell r="S83">
+            <v>28.5</v>
+          </cell>
+          <cell r="T83">
+            <v>42696.839236111111</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="Q84">
+            <v>100</v>
+          </cell>
+          <cell r="R84">
+            <v>96.5</v>
+          </cell>
+          <cell r="S84">
+            <v>28.5</v>
+          </cell>
+          <cell r="T84">
+            <v>42696.83929398148</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="Q85">
+            <v>100</v>
+          </cell>
+          <cell r="R85">
+            <v>96.5</v>
+          </cell>
+          <cell r="S85">
+            <v>28.5</v>
+          </cell>
+          <cell r="T85">
+            <v>42696.83935185185</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="Q86">
+            <v>100</v>
+          </cell>
+          <cell r="R86">
+            <v>96.5</v>
+          </cell>
+          <cell r="S86">
+            <v>28.6</v>
+          </cell>
+          <cell r="T86">
+            <v>42696.839409722219</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="Q87">
+            <v>100</v>
+          </cell>
+          <cell r="R87">
+            <v>96.5</v>
+          </cell>
+          <cell r="S87">
+            <v>28.6</v>
+          </cell>
+          <cell r="T87">
+            <v>42696.839467592596</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="Q88">
+            <v>100</v>
+          </cell>
+          <cell r="R88">
+            <v>98</v>
+          </cell>
+          <cell r="S88">
+            <v>28.6</v>
+          </cell>
+          <cell r="T88">
+            <v>42696.839525462965</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="Q89">
+            <v>100</v>
+          </cell>
+          <cell r="R89">
+            <v>98</v>
+          </cell>
+          <cell r="S89">
+            <v>28.6</v>
+          </cell>
+          <cell r="T89">
+            <v>42696.839583333334</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="Q90">
+            <v>100</v>
+          </cell>
+          <cell r="R90">
+            <v>97</v>
+          </cell>
+          <cell r="S90">
+            <v>28.6</v>
+          </cell>
+          <cell r="T90">
+            <v>42696.839641203704</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="Q91">
+            <v>100</v>
+          </cell>
+          <cell r="R91">
+            <v>99</v>
+          </cell>
+          <cell r="S91">
+            <v>28.6</v>
+          </cell>
+          <cell r="T91">
+            <v>42696.839699074073</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="Q92">
+            <v>100</v>
+          </cell>
+          <cell r="R92">
+            <v>98</v>
+          </cell>
+          <cell r="S92">
+            <v>28.6</v>
+          </cell>
+          <cell r="T92">
+            <v>42696.839756944442</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="Q93">
+            <v>100</v>
+          </cell>
+          <cell r="R93">
+            <v>98</v>
+          </cell>
+          <cell r="S93">
+            <v>28.7</v>
+          </cell>
+          <cell r="T93">
+            <v>42696.839814814812</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="Q94">
+            <v>100</v>
+          </cell>
+          <cell r="R94">
+            <v>98</v>
+          </cell>
+          <cell r="S94">
+            <v>28.6</v>
+          </cell>
+          <cell r="T94">
+            <v>42696.839872685188</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="Q95">
+            <v>100</v>
+          </cell>
+          <cell r="R95">
+            <v>97.5</v>
+          </cell>
+          <cell r="S95">
+            <v>28.7</v>
+          </cell>
+          <cell r="T95">
+            <v>42696.839930555558</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="Q96">
+            <v>100</v>
+          </cell>
+          <cell r="R96">
+            <v>98</v>
+          </cell>
+          <cell r="S96">
+            <v>28.7</v>
+          </cell>
+          <cell r="T96">
+            <v>42696.839988425927</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="Q97">
+            <v>100</v>
+          </cell>
+          <cell r="R97">
+            <v>99</v>
+          </cell>
+          <cell r="S97">
+            <v>28.9</v>
+          </cell>
+          <cell r="T97">
+            <v>42696.840046296296</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="Q98">
+            <v>100</v>
+          </cell>
+          <cell r="R98">
+            <v>98.5</v>
+          </cell>
+          <cell r="S98">
+            <v>28.6</v>
+          </cell>
+          <cell r="T98">
+            <v>42696.840104166666</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="Q99">
+            <v>100</v>
+          </cell>
+          <cell r="R99">
+            <v>98.5</v>
+          </cell>
+          <cell r="S99">
+            <v>28.5</v>
+          </cell>
+          <cell r="T99">
+            <v>42696.840162037035</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="Q100">
+            <v>100</v>
+          </cell>
+          <cell r="R100">
+            <v>98.5</v>
+          </cell>
+          <cell r="S100">
+            <v>28.6</v>
+          </cell>
+          <cell r="T100">
+            <v>42696.840219907404</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="Q101">
+            <v>100</v>
+          </cell>
+          <cell r="R101">
+            <v>99.5</v>
+          </cell>
+          <cell r="S101">
+            <v>28.7</v>
+          </cell>
+          <cell r="T101">
+            <v>42696.840277777781</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="Q102">
+            <v>100</v>
+          </cell>
+          <cell r="R102">
+            <v>99</v>
+          </cell>
+          <cell r="S102">
+            <v>28.7</v>
+          </cell>
+          <cell r="T102">
+            <v>42696.84033564815</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="Q103">
+            <v>100</v>
+          </cell>
+          <cell r="R103">
+            <v>99</v>
+          </cell>
+          <cell r="S103">
+            <v>28.7</v>
+          </cell>
+          <cell r="T103">
+            <v>42696.84039351852</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="Q104">
+            <v>100</v>
+          </cell>
+          <cell r="R104">
+            <v>99.5</v>
+          </cell>
+          <cell r="S104">
+            <v>28.7</v>
+          </cell>
+          <cell r="T104">
+            <v>42696.840451388889</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="Q105">
+            <v>100</v>
+          </cell>
+          <cell r="R105">
+            <v>99</v>
+          </cell>
+          <cell r="S105">
+            <v>28.7</v>
+          </cell>
+          <cell r="T105">
+            <v>42696.840509259258</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="Q106">
+            <v>100</v>
+          </cell>
+          <cell r="R106">
+            <v>100.5</v>
+          </cell>
+          <cell r="S106">
+            <v>28.7</v>
+          </cell>
+          <cell r="T106">
+            <v>42696.840567129628</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="Q107">
+            <v>100</v>
+          </cell>
+          <cell r="R107">
+            <v>100</v>
+          </cell>
+          <cell r="S107">
+            <v>28.7</v>
+          </cell>
+          <cell r="T107">
+            <v>42696.840624999997</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="Q108">
+            <v>100</v>
+          </cell>
+          <cell r="R108">
+            <v>100</v>
+          </cell>
+          <cell r="S108">
+            <v>28.7</v>
+          </cell>
+          <cell r="T108">
+            <v>42696.840682870374</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="Q109">
+            <v>100</v>
+          </cell>
+          <cell r="R109">
+            <v>100</v>
+          </cell>
+          <cell r="S109">
+            <v>28.8</v>
+          </cell>
+          <cell r="T109">
+            <v>42696.840740740743</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="Q110">
+            <v>100</v>
+          </cell>
+          <cell r="R110">
+            <v>99.5</v>
+          </cell>
+          <cell r="S110">
+            <v>28.7</v>
+          </cell>
+          <cell r="T110">
+            <v>42696.840798611112</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="Q111">
+            <v>100</v>
+          </cell>
+          <cell r="R111">
+            <v>101</v>
+          </cell>
+          <cell r="S111">
+            <v>28.8</v>
+          </cell>
+          <cell r="T111">
+            <v>42696.840856481482</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="Q112">
+            <v>100</v>
+          </cell>
+          <cell r="R112">
+            <v>101</v>
+          </cell>
+          <cell r="S112">
+            <v>28.8</v>
+          </cell>
+          <cell r="T112">
+            <v>42696.840914351851</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="Q113">
+            <v>100</v>
+          </cell>
+          <cell r="R113">
+            <v>100</v>
+          </cell>
+          <cell r="S113">
+            <v>28.8</v>
+          </cell>
+          <cell r="T113">
+            <v>42696.84097222222</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="Q114">
+            <v>100</v>
+          </cell>
+          <cell r="R114">
+            <v>100.5</v>
+          </cell>
+          <cell r="S114">
+            <v>28.8</v>
+          </cell>
+          <cell r="T114">
+            <v>42696.84103009259</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="Q115">
+            <v>100</v>
+          </cell>
+          <cell r="R115">
+            <v>99.5</v>
+          </cell>
+          <cell r="S115">
+            <v>28.8</v>
+          </cell>
+          <cell r="T115">
+            <v>42696.841087962966</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="Q116">
+            <v>100</v>
+          </cell>
+          <cell r="R116">
+            <v>100.5</v>
+          </cell>
+          <cell r="S116">
+            <v>28.8</v>
+          </cell>
+          <cell r="T116">
+            <v>42696.841145833336</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="Q117">
+            <v>100</v>
+          </cell>
+          <cell r="R117">
+            <v>100.5</v>
+          </cell>
+          <cell r="S117">
+            <v>28.9</v>
+          </cell>
+          <cell r="T117">
+            <v>42696.841203703705</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="Q118">
+            <v>100</v>
+          </cell>
+          <cell r="R118">
+            <v>101.5</v>
+          </cell>
+          <cell r="S118">
+            <v>28.9</v>
+          </cell>
+          <cell r="T118">
+            <v>42696.841261574074</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="Q119">
+            <v>100</v>
+          </cell>
+          <cell r="R119">
+            <v>102</v>
+          </cell>
+          <cell r="S119">
+            <v>28.8</v>
+          </cell>
+          <cell r="T119">
+            <v>42696.841319444444</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="Q120">
+            <v>100</v>
+          </cell>
+          <cell r="R120">
+            <v>101.5</v>
+          </cell>
+          <cell r="S120">
+            <v>28.8</v>
+          </cell>
+          <cell r="T120">
+            <v>42696.841377314813</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="Q121">
+            <v>100</v>
+          </cell>
+          <cell r="R121">
+            <v>100</v>
+          </cell>
+          <cell r="S121">
+            <v>28.8</v>
+          </cell>
+          <cell r="T121">
+            <v>42696.841435185182</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="Q122">
+            <v>100</v>
+          </cell>
+          <cell r="R122">
+            <v>101</v>
+          </cell>
+          <cell r="S122">
+            <v>28.9</v>
+          </cell>
+          <cell r="T122">
+            <v>42696.841493055559</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="Q123">
+            <v>100</v>
+          </cell>
+          <cell r="R123">
+            <v>102</v>
+          </cell>
+          <cell r="S123">
+            <v>28.8</v>
+          </cell>
+          <cell r="T123">
+            <v>42696.841550925928</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="Q124">
+            <v>100</v>
+          </cell>
+          <cell r="R124">
+            <v>102.5</v>
+          </cell>
+          <cell r="S124">
+            <v>28.9</v>
+          </cell>
+          <cell r="T124">
+            <v>42696.841608796298</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="Q125">
+            <v>100</v>
+          </cell>
+          <cell r="R125">
+            <v>102</v>
+          </cell>
+          <cell r="S125">
+            <v>28.9</v>
+          </cell>
+          <cell r="T125">
+            <v>42696.841666666667</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="Q126">
+            <v>100</v>
+          </cell>
+          <cell r="R126">
+            <v>101.5</v>
+          </cell>
+          <cell r="S126">
+            <v>28.8</v>
+          </cell>
+          <cell r="T126">
+            <v>42696.841724537036</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="Q127">
+            <v>100</v>
+          </cell>
+          <cell r="R127">
+            <v>101.5</v>
+          </cell>
+          <cell r="S127">
+            <v>28.9</v>
+          </cell>
+          <cell r="T127">
+            <v>42696.841782407406</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="Q128">
+            <v>100</v>
+          </cell>
+          <cell r="R128">
+            <v>101.5</v>
+          </cell>
+          <cell r="S128">
+            <v>28.9</v>
+          </cell>
+          <cell r="T128">
+            <v>42696.841840277775</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="Q129">
+            <v>100</v>
+          </cell>
+          <cell r="R129">
+            <v>101</v>
+          </cell>
+          <cell r="S129">
+            <v>29</v>
+          </cell>
+          <cell r="T129">
+            <v>42696.841898148145</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="Q130">
+            <v>100</v>
+          </cell>
+          <cell r="R130">
+            <v>102.5</v>
+          </cell>
+          <cell r="S130">
+            <v>28.8</v>
+          </cell>
+          <cell r="T130">
+            <v>42696.841956018521</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="Q131">
+            <v>100</v>
+          </cell>
+          <cell r="R131">
+            <v>101.5</v>
+          </cell>
+          <cell r="S131">
+            <v>28.9</v>
+          </cell>
+          <cell r="T131">
+            <v>42696.842013888891</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="Q132">
+            <v>100</v>
+          </cell>
+          <cell r="R132">
+            <v>102.5</v>
+          </cell>
+          <cell r="S132">
+            <v>28.9</v>
+          </cell>
+          <cell r="T132">
+            <v>42696.84207175926</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="Q133">
+            <v>100</v>
+          </cell>
+          <cell r="R133">
+            <v>101</v>
+          </cell>
+          <cell r="S133">
+            <v>28.9</v>
+          </cell>
+          <cell r="T133">
+            <v>42696.842129629629</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="Q134">
+            <v>100</v>
+          </cell>
+          <cell r="R134">
+            <v>101.5</v>
+          </cell>
+          <cell r="S134">
+            <v>28.9</v>
+          </cell>
+          <cell r="T134">
+            <v>42696.842187499999</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="Q135">
+            <v>100</v>
+          </cell>
+          <cell r="R135">
+            <v>101.5</v>
+          </cell>
+          <cell r="S135">
+            <v>28.9</v>
+          </cell>
+          <cell r="T135">
+            <v>42696.842245370368</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="Q136">
+            <v>100</v>
+          </cell>
+          <cell r="R136">
+            <v>102</v>
+          </cell>
+          <cell r="S136">
+            <v>28.8</v>
+          </cell>
+          <cell r="T136">
+            <v>42696.842303240737</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="Q137">
+            <v>100</v>
+          </cell>
+          <cell r="R137">
+            <v>101</v>
+          </cell>
+          <cell r="S137">
+            <v>28.9</v>
+          </cell>
+          <cell r="T137">
+            <v>42696.842361111114</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="Q138">
+            <v>100</v>
+          </cell>
+          <cell r="R138">
+            <v>101</v>
+          </cell>
+          <cell r="S138">
+            <v>29</v>
+          </cell>
+          <cell r="T138">
+            <v>42696.842418981483</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="Q139">
+            <v>100</v>
+          </cell>
+          <cell r="R139">
+            <v>102.5</v>
+          </cell>
+          <cell r="S139">
+            <v>28.9</v>
+          </cell>
+          <cell r="T139">
+            <v>42696.842476851853</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="Q140">
+            <v>100</v>
+          </cell>
+          <cell r="R140">
+            <v>103</v>
+          </cell>
+          <cell r="S140">
+            <v>28.8</v>
+          </cell>
+          <cell r="T140">
+            <v>42696.842534722222</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="Q141">
+            <v>100</v>
+          </cell>
+          <cell r="R141">
+            <v>102</v>
+          </cell>
+          <cell r="S141">
+            <v>28.9</v>
+          </cell>
+          <cell r="T141">
+            <v>42696.842592592591</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="Q142">
+            <v>100</v>
+          </cell>
+          <cell r="R142">
+            <v>102.5</v>
+          </cell>
+          <cell r="S142">
+            <v>28.5</v>
+          </cell>
+          <cell r="T142">
+            <v>42696.842650462961</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="Q143">
+            <v>100</v>
+          </cell>
+          <cell r="R143">
+            <v>102.5</v>
+          </cell>
+          <cell r="S143">
+            <v>28.7</v>
+          </cell>
+          <cell r="T143">
+            <v>42696.84270833333</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="Q144">
+            <v>100</v>
+          </cell>
+          <cell r="R144">
+            <v>102.5</v>
+          </cell>
+          <cell r="S144">
+            <v>28.8</v>
+          </cell>
+          <cell r="T144">
+            <v>42696.842766203707</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="Q145">
+            <v>100</v>
+          </cell>
+          <cell r="R145">
+            <v>103</v>
+          </cell>
+          <cell r="S145">
+            <v>28.6</v>
+          </cell>
+          <cell r="T145">
+            <v>42696.842824074076</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="Q146">
+            <v>100</v>
+          </cell>
+          <cell r="R146">
+            <v>102.5</v>
+          </cell>
+          <cell r="S146">
+            <v>28.5</v>
+          </cell>
+          <cell r="T146">
+            <v>42696.842881944445</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="Q147">
+            <v>100</v>
+          </cell>
+          <cell r="R147">
+            <v>102</v>
+          </cell>
+          <cell r="S147">
+            <v>28.9</v>
+          </cell>
+          <cell r="T147">
+            <v>42696.842939814815</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="Q148">
+            <v>100</v>
+          </cell>
+          <cell r="R148">
+            <v>101.5</v>
+          </cell>
+          <cell r="S148">
+            <v>29</v>
+          </cell>
+          <cell r="T148">
+            <v>42696.842997685184</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="Q149">
+            <v>100</v>
+          </cell>
+          <cell r="R149">
+            <v>101.5</v>
+          </cell>
+          <cell r="S149">
+            <v>28.7</v>
+          </cell>
+          <cell r="T149">
+            <v>42696.843055555553</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="Q150">
+            <v>72</v>
+          </cell>
+          <cell r="R150">
+            <v>100</v>
+          </cell>
+          <cell r="S150">
+            <v>26.4</v>
+          </cell>
+          <cell r="T150">
+            <v>42696.843113425923</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="Q151">
+            <v>27</v>
+          </cell>
+          <cell r="R151">
+            <v>93.5</v>
+          </cell>
+          <cell r="S151">
+            <v>19</v>
+          </cell>
+          <cell r="T151">
+            <v>42696.843171296299</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="Q152">
+            <v>34.5</v>
+          </cell>
+          <cell r="R152">
+            <v>95.5</v>
+          </cell>
+          <cell r="S152">
+            <v>20</v>
+          </cell>
+          <cell r="T152">
+            <v>42696.843229166669</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="Q153">
+            <v>12.5</v>
+          </cell>
+          <cell r="R153">
+            <v>87.5</v>
+          </cell>
+          <cell r="S153">
+            <v>11.3</v>
+          </cell>
+          <cell r="T153">
+            <v>42696.843287037038</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="Q154">
+            <v>2.5</v>
+          </cell>
+          <cell r="R154">
+            <v>85</v>
+          </cell>
+          <cell r="S154">
+            <v>9.1999999999999993</v>
+          </cell>
+          <cell r="T154">
+            <v>42696.843344907407</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="Q155">
+            <v>2.5</v>
+          </cell>
+          <cell r="R155">
+            <v>85.5</v>
+          </cell>
+          <cell r="S155">
+            <v>9.4</v>
+          </cell>
+          <cell r="T155">
+            <v>42696.843402777777</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="Q156">
+            <v>5</v>
+          </cell>
+          <cell r="R156">
+            <v>82.5</v>
+          </cell>
+          <cell r="S156">
+            <v>9.6</v>
+          </cell>
+          <cell r="T156">
+            <v>42696.843460648146</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="Q157">
+            <v>1</v>
+          </cell>
+          <cell r="R157">
+            <v>81.5</v>
+          </cell>
+          <cell r="S157">
+            <v>8.9</v>
+          </cell>
+          <cell r="T157">
+            <v>42696.843518518515</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="Q158">
+            <v>1.5</v>
+          </cell>
+          <cell r="R158">
+            <v>80.5</v>
+          </cell>
+          <cell r="S158">
+            <v>9.5</v>
+          </cell>
+          <cell r="T158">
+            <v>42696.843576388892</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4832,7 +7001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Laptop Memory Data.xlsx
+++ b/Laptop Memory Data.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="CT-Log 2016-11-21 22-57-40" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -614,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4591,2117 +4588,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CT-Log 2016-11-21 22-56-45"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="Q9" t="str">
-            <v>Load</v>
-          </cell>
-          <cell r="R9" t="str">
-            <v>Temp</v>
-          </cell>
-          <cell r="S9" t="str">
-            <v>Power</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Q10">
-            <v>3</v>
-          </cell>
-          <cell r="R10">
-            <v>54.5</v>
-          </cell>
-          <cell r="S10">
-            <v>8.4</v>
-          </cell>
-          <cell r="T10">
-            <v>42696.835011574076</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Q11">
-            <v>100</v>
-          </cell>
-          <cell r="R11">
-            <v>68</v>
-          </cell>
-          <cell r="S11">
-            <v>27.4</v>
-          </cell>
-          <cell r="T11">
-            <v>42696.835069444445</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Q12">
-            <v>100</v>
-          </cell>
-          <cell r="R12">
-            <v>67</v>
-          </cell>
-          <cell r="S12">
-            <v>27.5</v>
-          </cell>
-          <cell r="T12">
-            <v>42696.835127314815</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Q13">
-            <v>100</v>
-          </cell>
-          <cell r="R13">
-            <v>70</v>
-          </cell>
-          <cell r="S13">
-            <v>27.5</v>
-          </cell>
-          <cell r="T13">
-            <v>42696.835185185184</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Q14">
-            <v>100</v>
-          </cell>
-          <cell r="R14">
-            <v>70.5</v>
-          </cell>
-          <cell r="S14">
-            <v>27.3</v>
-          </cell>
-          <cell r="T14">
-            <v>42696.835243055553</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="Q15">
-            <v>100</v>
-          </cell>
-          <cell r="R15">
-            <v>71</v>
-          </cell>
-          <cell r="S15">
-            <v>27.4</v>
-          </cell>
-          <cell r="T15">
-            <v>42696.835300925923</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="Q16">
-            <v>100</v>
-          </cell>
-          <cell r="R16">
-            <v>72</v>
-          </cell>
-          <cell r="S16">
-            <v>27.4</v>
-          </cell>
-          <cell r="T16">
-            <v>42696.835358796299</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="Q17">
-            <v>100</v>
-          </cell>
-          <cell r="R17">
-            <v>73</v>
-          </cell>
-          <cell r="S17">
-            <v>27.5</v>
-          </cell>
-          <cell r="T17">
-            <v>42696.835416666669</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="Q18">
-            <v>100</v>
-          </cell>
-          <cell r="R18">
-            <v>72</v>
-          </cell>
-          <cell r="S18">
-            <v>27.4</v>
-          </cell>
-          <cell r="T18">
-            <v>42696.835474537038</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="Q19">
-            <v>100</v>
-          </cell>
-          <cell r="R19">
-            <v>72</v>
-          </cell>
-          <cell r="S19">
-            <v>27.5</v>
-          </cell>
-          <cell r="T19">
-            <v>42696.835532407407</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Q20">
-            <v>100</v>
-          </cell>
-          <cell r="R20">
-            <v>73.5</v>
-          </cell>
-          <cell r="S20">
-            <v>27.4</v>
-          </cell>
-          <cell r="T20">
-            <v>42696.835590277777</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="Q21">
-            <v>100</v>
-          </cell>
-          <cell r="R21">
-            <v>74</v>
-          </cell>
-          <cell r="S21">
-            <v>27.5</v>
-          </cell>
-          <cell r="T21">
-            <v>42696.835648148146</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Q22">
-            <v>100</v>
-          </cell>
-          <cell r="R22">
-            <v>74.5</v>
-          </cell>
-          <cell r="S22">
-            <v>27.4</v>
-          </cell>
-          <cell r="T22">
-            <v>42696.835706018515</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Q23">
-            <v>100</v>
-          </cell>
-          <cell r="R23">
-            <v>75</v>
-          </cell>
-          <cell r="S23">
-            <v>27.6</v>
-          </cell>
-          <cell r="T23">
-            <v>42696.835763888892</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="Q24">
-            <v>100</v>
-          </cell>
-          <cell r="R24">
-            <v>75.5</v>
-          </cell>
-          <cell r="S24">
-            <v>27.5</v>
-          </cell>
-          <cell r="T24">
-            <v>42696.835821759261</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="Q25">
-            <v>100</v>
-          </cell>
-          <cell r="R25">
-            <v>77.5</v>
-          </cell>
-          <cell r="S25">
-            <v>27.5</v>
-          </cell>
-          <cell r="T25">
-            <v>42696.835879629631</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Q26">
-            <v>100</v>
-          </cell>
-          <cell r="R26">
-            <v>78</v>
-          </cell>
-          <cell r="S26">
-            <v>27.6</v>
-          </cell>
-          <cell r="T26">
-            <v>42696.8359375</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Q27">
-            <v>100</v>
-          </cell>
-          <cell r="R27">
-            <v>78</v>
-          </cell>
-          <cell r="S27">
-            <v>27.6</v>
-          </cell>
-          <cell r="T27">
-            <v>42696.835995370369</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Q28">
-            <v>100</v>
-          </cell>
-          <cell r="R28">
-            <v>79</v>
-          </cell>
-          <cell r="S28">
-            <v>27.6</v>
-          </cell>
-          <cell r="T28">
-            <v>42696.836053240739</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Q29">
-            <v>100</v>
-          </cell>
-          <cell r="R29">
-            <v>78</v>
-          </cell>
-          <cell r="S29">
-            <v>27.7</v>
-          </cell>
-          <cell r="T29">
-            <v>42696.836111111108</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Q30">
-            <v>100</v>
-          </cell>
-          <cell r="R30">
-            <v>81</v>
-          </cell>
-          <cell r="S30">
-            <v>27.7</v>
-          </cell>
-          <cell r="T30">
-            <v>42696.836168981485</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="Q31">
-            <v>100</v>
-          </cell>
-          <cell r="R31">
-            <v>79.5</v>
-          </cell>
-          <cell r="S31">
-            <v>27.7</v>
-          </cell>
-          <cell r="T31">
-            <v>42696.836226851854</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Q32">
-            <v>100</v>
-          </cell>
-          <cell r="R32">
-            <v>80</v>
-          </cell>
-          <cell r="S32">
-            <v>27.8</v>
-          </cell>
-          <cell r="T32">
-            <v>42696.836284722223</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="Q33">
-            <v>100</v>
-          </cell>
-          <cell r="R33">
-            <v>81.5</v>
-          </cell>
-          <cell r="S33">
-            <v>27.7</v>
-          </cell>
-          <cell r="T33">
-            <v>42696.836342592593</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="Q34">
-            <v>100</v>
-          </cell>
-          <cell r="R34">
-            <v>82.5</v>
-          </cell>
-          <cell r="S34">
-            <v>27.8</v>
-          </cell>
-          <cell r="T34">
-            <v>42696.836400462962</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="Q35">
-            <v>100</v>
-          </cell>
-          <cell r="R35">
-            <v>82.5</v>
-          </cell>
-          <cell r="S35">
-            <v>27.8</v>
-          </cell>
-          <cell r="T35">
-            <v>42696.836458333331</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="Q36">
-            <v>100</v>
-          </cell>
-          <cell r="R36">
-            <v>84</v>
-          </cell>
-          <cell r="S36">
-            <v>27.9</v>
-          </cell>
-          <cell r="T36">
-            <v>42696.836516203701</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="Q37">
-            <v>100</v>
-          </cell>
-          <cell r="R37">
-            <v>83</v>
-          </cell>
-          <cell r="S37">
-            <v>27.9</v>
-          </cell>
-          <cell r="T37">
-            <v>42696.836574074077</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="Q38">
-            <v>100</v>
-          </cell>
-          <cell r="R38">
-            <v>84</v>
-          </cell>
-          <cell r="S38">
-            <v>28</v>
-          </cell>
-          <cell r="T38">
-            <v>42696.836631944447</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="Q39">
-            <v>100</v>
-          </cell>
-          <cell r="R39">
-            <v>84.5</v>
-          </cell>
-          <cell r="S39">
-            <v>28</v>
-          </cell>
-          <cell r="T39">
-            <v>42696.836689814816</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="Q40">
-            <v>100</v>
-          </cell>
-          <cell r="R40">
-            <v>86</v>
-          </cell>
-          <cell r="S40">
-            <v>28</v>
-          </cell>
-          <cell r="T40">
-            <v>42696.836747685185</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="Q41">
-            <v>100</v>
-          </cell>
-          <cell r="R41">
-            <v>85</v>
-          </cell>
-          <cell r="S41">
-            <v>28</v>
-          </cell>
-          <cell r="T41">
-            <v>42696.836805555555</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="Q42">
-            <v>100</v>
-          </cell>
-          <cell r="R42">
-            <v>85.5</v>
-          </cell>
-          <cell r="S42">
-            <v>28</v>
-          </cell>
-          <cell r="T42">
-            <v>42696.836863425924</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="Q43">
-            <v>100</v>
-          </cell>
-          <cell r="R43">
-            <v>86.5</v>
-          </cell>
-          <cell r="S43">
-            <v>28.1</v>
-          </cell>
-          <cell r="T43">
-            <v>42696.836921296293</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="Q44">
-            <v>100</v>
-          </cell>
-          <cell r="R44">
-            <v>87</v>
-          </cell>
-          <cell r="S44">
-            <v>28</v>
-          </cell>
-          <cell r="T44">
-            <v>42696.83697916667</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="Q45">
-            <v>100</v>
-          </cell>
-          <cell r="R45">
-            <v>86.5</v>
-          </cell>
-          <cell r="S45">
-            <v>28.1</v>
-          </cell>
-          <cell r="T45">
-            <v>42696.837037037039</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="Q46">
-            <v>100</v>
-          </cell>
-          <cell r="R46">
-            <v>87</v>
-          </cell>
-          <cell r="S46">
-            <v>28.1</v>
-          </cell>
-          <cell r="T46">
-            <v>42696.837094907409</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="Q47">
-            <v>100</v>
-          </cell>
-          <cell r="R47">
-            <v>86.5</v>
-          </cell>
-          <cell r="S47">
-            <v>28.1</v>
-          </cell>
-          <cell r="T47">
-            <v>42696.837152777778</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="Q48">
-            <v>100</v>
-          </cell>
-          <cell r="R48">
-            <v>88</v>
-          </cell>
-          <cell r="S48">
-            <v>28.1</v>
-          </cell>
-          <cell r="T48">
-            <v>42696.837210648147</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="Q49">
-            <v>100</v>
-          </cell>
-          <cell r="R49">
-            <v>88</v>
-          </cell>
-          <cell r="S49">
-            <v>28.1</v>
-          </cell>
-          <cell r="T49">
-            <v>42696.837268518517</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="Q50">
-            <v>100</v>
-          </cell>
-          <cell r="R50">
-            <v>89</v>
-          </cell>
-          <cell r="S50">
-            <v>28.2</v>
-          </cell>
-          <cell r="T50">
-            <v>42696.837326388886</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="Q51">
-            <v>100</v>
-          </cell>
-          <cell r="R51">
-            <v>88.5</v>
-          </cell>
-          <cell r="S51">
-            <v>28.2</v>
-          </cell>
-          <cell r="T51">
-            <v>42696.837384259263</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="Q52">
-            <v>100</v>
-          </cell>
-          <cell r="R52">
-            <v>89</v>
-          </cell>
-          <cell r="S52">
-            <v>28</v>
-          </cell>
-          <cell r="T52">
-            <v>42696.837442129632</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="Q53">
-            <v>100</v>
-          </cell>
-          <cell r="R53">
-            <v>90</v>
-          </cell>
-          <cell r="S53">
-            <v>28.2</v>
-          </cell>
-          <cell r="T53">
-            <v>42696.837500000001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="Q54">
-            <v>100</v>
-          </cell>
-          <cell r="R54">
-            <v>90.5</v>
-          </cell>
-          <cell r="S54">
-            <v>28.3</v>
-          </cell>
-          <cell r="T54">
-            <v>42696.837557870371</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="Q55">
-            <v>100</v>
-          </cell>
-          <cell r="R55">
-            <v>90.5</v>
-          </cell>
-          <cell r="S55">
-            <v>28.3</v>
-          </cell>
-          <cell r="T55">
-            <v>42696.83761574074</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="Q56">
-            <v>100</v>
-          </cell>
-          <cell r="R56">
-            <v>90.5</v>
-          </cell>
-          <cell r="S56">
-            <v>28.3</v>
-          </cell>
-          <cell r="T56">
-            <v>42696.837673611109</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="Q57">
-            <v>100</v>
-          </cell>
-          <cell r="R57">
-            <v>90.5</v>
-          </cell>
-          <cell r="S57">
-            <v>28.2</v>
-          </cell>
-          <cell r="T57">
-            <v>42696.837731481479</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="Q58">
-            <v>100</v>
-          </cell>
-          <cell r="R58">
-            <v>91</v>
-          </cell>
-          <cell r="S58">
-            <v>28.3</v>
-          </cell>
-          <cell r="T58">
-            <v>42696.837789351855</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="Q59">
-            <v>100</v>
-          </cell>
-          <cell r="R59">
-            <v>91</v>
-          </cell>
-          <cell r="S59">
-            <v>28.2</v>
-          </cell>
-          <cell r="T59">
-            <v>42696.837847222225</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="Q60">
-            <v>100</v>
-          </cell>
-          <cell r="R60">
-            <v>90.5</v>
-          </cell>
-          <cell r="S60">
-            <v>28.2</v>
-          </cell>
-          <cell r="T60">
-            <v>42696.837905092594</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="Q61">
-            <v>100</v>
-          </cell>
-          <cell r="R61">
-            <v>91.5</v>
-          </cell>
-          <cell r="S61">
-            <v>28.2</v>
-          </cell>
-          <cell r="T61">
-            <v>42696.837962962964</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="Q62">
-            <v>100</v>
-          </cell>
-          <cell r="R62">
-            <v>93</v>
-          </cell>
-          <cell r="S62">
-            <v>28.3</v>
-          </cell>
-          <cell r="T62">
-            <v>42696.838020833333</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="Q63">
-            <v>100</v>
-          </cell>
-          <cell r="R63">
-            <v>92</v>
-          </cell>
-          <cell r="S63">
-            <v>28.2</v>
-          </cell>
-          <cell r="T63">
-            <v>42696.838078703702</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="Q64">
-            <v>100</v>
-          </cell>
-          <cell r="R64">
-            <v>92</v>
-          </cell>
-          <cell r="S64">
-            <v>28.3</v>
-          </cell>
-          <cell r="T64">
-            <v>42696.838136574072</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="Q65">
-            <v>100</v>
-          </cell>
-          <cell r="R65">
-            <v>92.5</v>
-          </cell>
-          <cell r="S65">
-            <v>28.3</v>
-          </cell>
-          <cell r="T65">
-            <v>42696.838194444441</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="Q66">
-            <v>100</v>
-          </cell>
-          <cell r="R66">
-            <v>93.5</v>
-          </cell>
-          <cell r="S66">
-            <v>28.3</v>
-          </cell>
-          <cell r="T66">
-            <v>42696.838252314818</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="Q67">
-            <v>100</v>
-          </cell>
-          <cell r="R67">
-            <v>93</v>
-          </cell>
-          <cell r="S67">
-            <v>28.3</v>
-          </cell>
-          <cell r="T67">
-            <v>42696.838310185187</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="Q68">
-            <v>100</v>
-          </cell>
-          <cell r="R68">
-            <v>93.5</v>
-          </cell>
-          <cell r="S68">
-            <v>28.4</v>
-          </cell>
-          <cell r="T68">
-            <v>42696.838368055556</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="Q69">
-            <v>100</v>
-          </cell>
-          <cell r="R69">
-            <v>93.5</v>
-          </cell>
-          <cell r="S69">
-            <v>28.3</v>
-          </cell>
-          <cell r="T69">
-            <v>42696.838425925926</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="Q70">
-            <v>100</v>
-          </cell>
-          <cell r="R70">
-            <v>95</v>
-          </cell>
-          <cell r="S70">
-            <v>28.3</v>
-          </cell>
-          <cell r="T70">
-            <v>42696.838483796295</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="Q71">
-            <v>100</v>
-          </cell>
-          <cell r="R71">
-            <v>93</v>
-          </cell>
-          <cell r="S71">
-            <v>28.4</v>
-          </cell>
-          <cell r="T71">
-            <v>42696.838541666664</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="Q72">
-            <v>100</v>
-          </cell>
-          <cell r="R72">
-            <v>94.5</v>
-          </cell>
-          <cell r="S72">
-            <v>28.4</v>
-          </cell>
-          <cell r="T72">
-            <v>42696.838599537034</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="Q73">
-            <v>100</v>
-          </cell>
-          <cell r="R73">
-            <v>95.5</v>
-          </cell>
-          <cell r="S73">
-            <v>28.3</v>
-          </cell>
-          <cell r="T73">
-            <v>42696.83865740741</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="Q74">
-            <v>100</v>
-          </cell>
-          <cell r="R74">
-            <v>95</v>
-          </cell>
-          <cell r="S74">
-            <v>28.4</v>
-          </cell>
-          <cell r="T74">
-            <v>42696.83871527778</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="Q75">
-            <v>100</v>
-          </cell>
-          <cell r="R75">
-            <v>94.5</v>
-          </cell>
-          <cell r="S75">
-            <v>28.3</v>
-          </cell>
-          <cell r="T75">
-            <v>42696.838773148149</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="Q76">
-            <v>100</v>
-          </cell>
-          <cell r="R76">
-            <v>96</v>
-          </cell>
-          <cell r="S76">
-            <v>28.4</v>
-          </cell>
-          <cell r="T76">
-            <v>42696.838831018518</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="Q77">
-            <v>100</v>
-          </cell>
-          <cell r="R77">
-            <v>95.5</v>
-          </cell>
-          <cell r="S77">
-            <v>28.4</v>
-          </cell>
-          <cell r="T77">
-            <v>42696.838888888888</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="Q78">
-            <v>100</v>
-          </cell>
-          <cell r="R78">
-            <v>95.5</v>
-          </cell>
-          <cell r="S78">
-            <v>28.4</v>
-          </cell>
-          <cell r="T78">
-            <v>42696.838946759257</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="Q79">
-            <v>100</v>
-          </cell>
-          <cell r="R79">
-            <v>95</v>
-          </cell>
-          <cell r="S79">
-            <v>28.5</v>
-          </cell>
-          <cell r="T79">
-            <v>42696.839004629626</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="Q80">
-            <v>100</v>
-          </cell>
-          <cell r="R80">
-            <v>97</v>
-          </cell>
-          <cell r="S80">
-            <v>28.5</v>
-          </cell>
-          <cell r="T80">
-            <v>42696.839062500003</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="Q81">
-            <v>100</v>
-          </cell>
-          <cell r="R81">
-            <v>96</v>
-          </cell>
-          <cell r="S81">
-            <v>28.5</v>
-          </cell>
-          <cell r="T81">
-            <v>42696.839120370372</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="Q82">
-            <v>100</v>
-          </cell>
-          <cell r="R82">
-            <v>96.5</v>
-          </cell>
-          <cell r="S82">
-            <v>28.5</v>
-          </cell>
-          <cell r="T82">
-            <v>42696.839178240742</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="Q83">
-            <v>100</v>
-          </cell>
-          <cell r="R83">
-            <v>96.5</v>
-          </cell>
-          <cell r="S83">
-            <v>28.5</v>
-          </cell>
-          <cell r="T83">
-            <v>42696.839236111111</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="Q84">
-            <v>100</v>
-          </cell>
-          <cell r="R84">
-            <v>96.5</v>
-          </cell>
-          <cell r="S84">
-            <v>28.5</v>
-          </cell>
-          <cell r="T84">
-            <v>42696.83929398148</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="Q85">
-            <v>100</v>
-          </cell>
-          <cell r="R85">
-            <v>96.5</v>
-          </cell>
-          <cell r="S85">
-            <v>28.5</v>
-          </cell>
-          <cell r="T85">
-            <v>42696.83935185185</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="Q86">
-            <v>100</v>
-          </cell>
-          <cell r="R86">
-            <v>96.5</v>
-          </cell>
-          <cell r="S86">
-            <v>28.6</v>
-          </cell>
-          <cell r="T86">
-            <v>42696.839409722219</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="Q87">
-            <v>100</v>
-          </cell>
-          <cell r="R87">
-            <v>96.5</v>
-          </cell>
-          <cell r="S87">
-            <v>28.6</v>
-          </cell>
-          <cell r="T87">
-            <v>42696.839467592596</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="Q88">
-            <v>100</v>
-          </cell>
-          <cell r="R88">
-            <v>98</v>
-          </cell>
-          <cell r="S88">
-            <v>28.6</v>
-          </cell>
-          <cell r="T88">
-            <v>42696.839525462965</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="Q89">
-            <v>100</v>
-          </cell>
-          <cell r="R89">
-            <v>98</v>
-          </cell>
-          <cell r="S89">
-            <v>28.6</v>
-          </cell>
-          <cell r="T89">
-            <v>42696.839583333334</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="Q90">
-            <v>100</v>
-          </cell>
-          <cell r="R90">
-            <v>97</v>
-          </cell>
-          <cell r="S90">
-            <v>28.6</v>
-          </cell>
-          <cell r="T90">
-            <v>42696.839641203704</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="Q91">
-            <v>100</v>
-          </cell>
-          <cell r="R91">
-            <v>99</v>
-          </cell>
-          <cell r="S91">
-            <v>28.6</v>
-          </cell>
-          <cell r="T91">
-            <v>42696.839699074073</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="Q92">
-            <v>100</v>
-          </cell>
-          <cell r="R92">
-            <v>98</v>
-          </cell>
-          <cell r="S92">
-            <v>28.6</v>
-          </cell>
-          <cell r="T92">
-            <v>42696.839756944442</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="Q93">
-            <v>100</v>
-          </cell>
-          <cell r="R93">
-            <v>98</v>
-          </cell>
-          <cell r="S93">
-            <v>28.7</v>
-          </cell>
-          <cell r="T93">
-            <v>42696.839814814812</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="Q94">
-            <v>100</v>
-          </cell>
-          <cell r="R94">
-            <v>98</v>
-          </cell>
-          <cell r="S94">
-            <v>28.6</v>
-          </cell>
-          <cell r="T94">
-            <v>42696.839872685188</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="Q95">
-            <v>100</v>
-          </cell>
-          <cell r="R95">
-            <v>97.5</v>
-          </cell>
-          <cell r="S95">
-            <v>28.7</v>
-          </cell>
-          <cell r="T95">
-            <v>42696.839930555558</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="Q96">
-            <v>100</v>
-          </cell>
-          <cell r="R96">
-            <v>98</v>
-          </cell>
-          <cell r="S96">
-            <v>28.7</v>
-          </cell>
-          <cell r="T96">
-            <v>42696.839988425927</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="Q97">
-            <v>100</v>
-          </cell>
-          <cell r="R97">
-            <v>99</v>
-          </cell>
-          <cell r="S97">
-            <v>28.9</v>
-          </cell>
-          <cell r="T97">
-            <v>42696.840046296296</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="Q98">
-            <v>100</v>
-          </cell>
-          <cell r="R98">
-            <v>98.5</v>
-          </cell>
-          <cell r="S98">
-            <v>28.6</v>
-          </cell>
-          <cell r="T98">
-            <v>42696.840104166666</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="Q99">
-            <v>100</v>
-          </cell>
-          <cell r="R99">
-            <v>98.5</v>
-          </cell>
-          <cell r="S99">
-            <v>28.5</v>
-          </cell>
-          <cell r="T99">
-            <v>42696.840162037035</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="Q100">
-            <v>100</v>
-          </cell>
-          <cell r="R100">
-            <v>98.5</v>
-          </cell>
-          <cell r="S100">
-            <v>28.6</v>
-          </cell>
-          <cell r="T100">
-            <v>42696.840219907404</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="Q101">
-            <v>100</v>
-          </cell>
-          <cell r="R101">
-            <v>99.5</v>
-          </cell>
-          <cell r="S101">
-            <v>28.7</v>
-          </cell>
-          <cell r="T101">
-            <v>42696.840277777781</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="Q102">
-            <v>100</v>
-          </cell>
-          <cell r="R102">
-            <v>99</v>
-          </cell>
-          <cell r="S102">
-            <v>28.7</v>
-          </cell>
-          <cell r="T102">
-            <v>42696.84033564815</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="Q103">
-            <v>100</v>
-          </cell>
-          <cell r="R103">
-            <v>99</v>
-          </cell>
-          <cell r="S103">
-            <v>28.7</v>
-          </cell>
-          <cell r="T103">
-            <v>42696.84039351852</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="Q104">
-            <v>100</v>
-          </cell>
-          <cell r="R104">
-            <v>99.5</v>
-          </cell>
-          <cell r="S104">
-            <v>28.7</v>
-          </cell>
-          <cell r="T104">
-            <v>42696.840451388889</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="Q105">
-            <v>100</v>
-          </cell>
-          <cell r="R105">
-            <v>99</v>
-          </cell>
-          <cell r="S105">
-            <v>28.7</v>
-          </cell>
-          <cell r="T105">
-            <v>42696.840509259258</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="Q106">
-            <v>100</v>
-          </cell>
-          <cell r="R106">
-            <v>100.5</v>
-          </cell>
-          <cell r="S106">
-            <v>28.7</v>
-          </cell>
-          <cell r="T106">
-            <v>42696.840567129628</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="Q107">
-            <v>100</v>
-          </cell>
-          <cell r="R107">
-            <v>100</v>
-          </cell>
-          <cell r="S107">
-            <v>28.7</v>
-          </cell>
-          <cell r="T107">
-            <v>42696.840624999997</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="Q108">
-            <v>100</v>
-          </cell>
-          <cell r="R108">
-            <v>100</v>
-          </cell>
-          <cell r="S108">
-            <v>28.7</v>
-          </cell>
-          <cell r="T108">
-            <v>42696.840682870374</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="Q109">
-            <v>100</v>
-          </cell>
-          <cell r="R109">
-            <v>100</v>
-          </cell>
-          <cell r="S109">
-            <v>28.8</v>
-          </cell>
-          <cell r="T109">
-            <v>42696.840740740743</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="Q110">
-            <v>100</v>
-          </cell>
-          <cell r="R110">
-            <v>99.5</v>
-          </cell>
-          <cell r="S110">
-            <v>28.7</v>
-          </cell>
-          <cell r="T110">
-            <v>42696.840798611112</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="Q111">
-            <v>100</v>
-          </cell>
-          <cell r="R111">
-            <v>101</v>
-          </cell>
-          <cell r="S111">
-            <v>28.8</v>
-          </cell>
-          <cell r="T111">
-            <v>42696.840856481482</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="Q112">
-            <v>100</v>
-          </cell>
-          <cell r="R112">
-            <v>101</v>
-          </cell>
-          <cell r="S112">
-            <v>28.8</v>
-          </cell>
-          <cell r="T112">
-            <v>42696.840914351851</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="Q113">
-            <v>100</v>
-          </cell>
-          <cell r="R113">
-            <v>100</v>
-          </cell>
-          <cell r="S113">
-            <v>28.8</v>
-          </cell>
-          <cell r="T113">
-            <v>42696.84097222222</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="Q114">
-            <v>100</v>
-          </cell>
-          <cell r="R114">
-            <v>100.5</v>
-          </cell>
-          <cell r="S114">
-            <v>28.8</v>
-          </cell>
-          <cell r="T114">
-            <v>42696.84103009259</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="Q115">
-            <v>100</v>
-          </cell>
-          <cell r="R115">
-            <v>99.5</v>
-          </cell>
-          <cell r="S115">
-            <v>28.8</v>
-          </cell>
-          <cell r="T115">
-            <v>42696.841087962966</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="Q116">
-            <v>100</v>
-          </cell>
-          <cell r="R116">
-            <v>100.5</v>
-          </cell>
-          <cell r="S116">
-            <v>28.8</v>
-          </cell>
-          <cell r="T116">
-            <v>42696.841145833336</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="Q117">
-            <v>100</v>
-          </cell>
-          <cell r="R117">
-            <v>100.5</v>
-          </cell>
-          <cell r="S117">
-            <v>28.9</v>
-          </cell>
-          <cell r="T117">
-            <v>42696.841203703705</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="Q118">
-            <v>100</v>
-          </cell>
-          <cell r="R118">
-            <v>101.5</v>
-          </cell>
-          <cell r="S118">
-            <v>28.9</v>
-          </cell>
-          <cell r="T118">
-            <v>42696.841261574074</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="Q119">
-            <v>100</v>
-          </cell>
-          <cell r="R119">
-            <v>102</v>
-          </cell>
-          <cell r="S119">
-            <v>28.8</v>
-          </cell>
-          <cell r="T119">
-            <v>42696.841319444444</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="Q120">
-            <v>100</v>
-          </cell>
-          <cell r="R120">
-            <v>101.5</v>
-          </cell>
-          <cell r="S120">
-            <v>28.8</v>
-          </cell>
-          <cell r="T120">
-            <v>42696.841377314813</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="Q121">
-            <v>100</v>
-          </cell>
-          <cell r="R121">
-            <v>100</v>
-          </cell>
-          <cell r="S121">
-            <v>28.8</v>
-          </cell>
-          <cell r="T121">
-            <v>42696.841435185182</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="Q122">
-            <v>100</v>
-          </cell>
-          <cell r="R122">
-            <v>101</v>
-          </cell>
-          <cell r="S122">
-            <v>28.9</v>
-          </cell>
-          <cell r="T122">
-            <v>42696.841493055559</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="Q123">
-            <v>100</v>
-          </cell>
-          <cell r="R123">
-            <v>102</v>
-          </cell>
-          <cell r="S123">
-            <v>28.8</v>
-          </cell>
-          <cell r="T123">
-            <v>42696.841550925928</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="Q124">
-            <v>100</v>
-          </cell>
-          <cell r="R124">
-            <v>102.5</v>
-          </cell>
-          <cell r="S124">
-            <v>28.9</v>
-          </cell>
-          <cell r="T124">
-            <v>42696.841608796298</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="Q125">
-            <v>100</v>
-          </cell>
-          <cell r="R125">
-            <v>102</v>
-          </cell>
-          <cell r="S125">
-            <v>28.9</v>
-          </cell>
-          <cell r="T125">
-            <v>42696.841666666667</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="Q126">
-            <v>100</v>
-          </cell>
-          <cell r="R126">
-            <v>101.5</v>
-          </cell>
-          <cell r="S126">
-            <v>28.8</v>
-          </cell>
-          <cell r="T126">
-            <v>42696.841724537036</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="Q127">
-            <v>100</v>
-          </cell>
-          <cell r="R127">
-            <v>101.5</v>
-          </cell>
-          <cell r="S127">
-            <v>28.9</v>
-          </cell>
-          <cell r="T127">
-            <v>42696.841782407406</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="Q128">
-            <v>100</v>
-          </cell>
-          <cell r="R128">
-            <v>101.5</v>
-          </cell>
-          <cell r="S128">
-            <v>28.9</v>
-          </cell>
-          <cell r="T128">
-            <v>42696.841840277775</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="Q129">
-            <v>100</v>
-          </cell>
-          <cell r="R129">
-            <v>101</v>
-          </cell>
-          <cell r="S129">
-            <v>29</v>
-          </cell>
-          <cell r="T129">
-            <v>42696.841898148145</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="Q130">
-            <v>100</v>
-          </cell>
-          <cell r="R130">
-            <v>102.5</v>
-          </cell>
-          <cell r="S130">
-            <v>28.8</v>
-          </cell>
-          <cell r="T130">
-            <v>42696.841956018521</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="Q131">
-            <v>100</v>
-          </cell>
-          <cell r="R131">
-            <v>101.5</v>
-          </cell>
-          <cell r="S131">
-            <v>28.9</v>
-          </cell>
-          <cell r="T131">
-            <v>42696.842013888891</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="Q132">
-            <v>100</v>
-          </cell>
-          <cell r="R132">
-            <v>102.5</v>
-          </cell>
-          <cell r="S132">
-            <v>28.9</v>
-          </cell>
-          <cell r="T132">
-            <v>42696.84207175926</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="Q133">
-            <v>100</v>
-          </cell>
-          <cell r="R133">
-            <v>101</v>
-          </cell>
-          <cell r="S133">
-            <v>28.9</v>
-          </cell>
-          <cell r="T133">
-            <v>42696.842129629629</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="Q134">
-            <v>100</v>
-          </cell>
-          <cell r="R134">
-            <v>101.5</v>
-          </cell>
-          <cell r="S134">
-            <v>28.9</v>
-          </cell>
-          <cell r="T134">
-            <v>42696.842187499999</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="Q135">
-            <v>100</v>
-          </cell>
-          <cell r="R135">
-            <v>101.5</v>
-          </cell>
-          <cell r="S135">
-            <v>28.9</v>
-          </cell>
-          <cell r="T135">
-            <v>42696.842245370368</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="Q136">
-            <v>100</v>
-          </cell>
-          <cell r="R136">
-            <v>102</v>
-          </cell>
-          <cell r="S136">
-            <v>28.8</v>
-          </cell>
-          <cell r="T136">
-            <v>42696.842303240737</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="Q137">
-            <v>100</v>
-          </cell>
-          <cell r="R137">
-            <v>101</v>
-          </cell>
-          <cell r="S137">
-            <v>28.9</v>
-          </cell>
-          <cell r="T137">
-            <v>42696.842361111114</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="Q138">
-            <v>100</v>
-          </cell>
-          <cell r="R138">
-            <v>101</v>
-          </cell>
-          <cell r="S138">
-            <v>29</v>
-          </cell>
-          <cell r="T138">
-            <v>42696.842418981483</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="Q139">
-            <v>100</v>
-          </cell>
-          <cell r="R139">
-            <v>102.5</v>
-          </cell>
-          <cell r="S139">
-            <v>28.9</v>
-          </cell>
-          <cell r="T139">
-            <v>42696.842476851853</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="Q140">
-            <v>100</v>
-          </cell>
-          <cell r="R140">
-            <v>103</v>
-          </cell>
-          <cell r="S140">
-            <v>28.8</v>
-          </cell>
-          <cell r="T140">
-            <v>42696.842534722222</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="Q141">
-            <v>100</v>
-          </cell>
-          <cell r="R141">
-            <v>102</v>
-          </cell>
-          <cell r="S141">
-            <v>28.9</v>
-          </cell>
-          <cell r="T141">
-            <v>42696.842592592591</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="Q142">
-            <v>100</v>
-          </cell>
-          <cell r="R142">
-            <v>102.5</v>
-          </cell>
-          <cell r="S142">
-            <v>28.5</v>
-          </cell>
-          <cell r="T142">
-            <v>42696.842650462961</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="Q143">
-            <v>100</v>
-          </cell>
-          <cell r="R143">
-            <v>102.5</v>
-          </cell>
-          <cell r="S143">
-            <v>28.7</v>
-          </cell>
-          <cell r="T143">
-            <v>42696.84270833333</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="Q144">
-            <v>100</v>
-          </cell>
-          <cell r="R144">
-            <v>102.5</v>
-          </cell>
-          <cell r="S144">
-            <v>28.8</v>
-          </cell>
-          <cell r="T144">
-            <v>42696.842766203707</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="Q145">
-            <v>100</v>
-          </cell>
-          <cell r="R145">
-            <v>103</v>
-          </cell>
-          <cell r="S145">
-            <v>28.6</v>
-          </cell>
-          <cell r="T145">
-            <v>42696.842824074076</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="Q146">
-            <v>100</v>
-          </cell>
-          <cell r="R146">
-            <v>102.5</v>
-          </cell>
-          <cell r="S146">
-            <v>28.5</v>
-          </cell>
-          <cell r="T146">
-            <v>42696.842881944445</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="Q147">
-            <v>100</v>
-          </cell>
-          <cell r="R147">
-            <v>102</v>
-          </cell>
-          <cell r="S147">
-            <v>28.9</v>
-          </cell>
-          <cell r="T147">
-            <v>42696.842939814815</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="Q148">
-            <v>100</v>
-          </cell>
-          <cell r="R148">
-            <v>101.5</v>
-          </cell>
-          <cell r="S148">
-            <v>29</v>
-          </cell>
-          <cell r="T148">
-            <v>42696.842997685184</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="Q149">
-            <v>100</v>
-          </cell>
-          <cell r="R149">
-            <v>101.5</v>
-          </cell>
-          <cell r="S149">
-            <v>28.7</v>
-          </cell>
-          <cell r="T149">
-            <v>42696.843055555553</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="Q150">
-            <v>72</v>
-          </cell>
-          <cell r="R150">
-            <v>100</v>
-          </cell>
-          <cell r="S150">
-            <v>26.4</v>
-          </cell>
-          <cell r="T150">
-            <v>42696.843113425923</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="Q151">
-            <v>27</v>
-          </cell>
-          <cell r="R151">
-            <v>93.5</v>
-          </cell>
-          <cell r="S151">
-            <v>19</v>
-          </cell>
-          <cell r="T151">
-            <v>42696.843171296299</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="Q152">
-            <v>34.5</v>
-          </cell>
-          <cell r="R152">
-            <v>95.5</v>
-          </cell>
-          <cell r="S152">
-            <v>20</v>
-          </cell>
-          <cell r="T152">
-            <v>42696.843229166669</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="Q153">
-            <v>12.5</v>
-          </cell>
-          <cell r="R153">
-            <v>87.5</v>
-          </cell>
-          <cell r="S153">
-            <v>11.3</v>
-          </cell>
-          <cell r="T153">
-            <v>42696.843287037038</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="Q154">
-            <v>2.5</v>
-          </cell>
-          <cell r="R154">
-            <v>85</v>
-          </cell>
-          <cell r="S154">
-            <v>9.1999999999999993</v>
-          </cell>
-          <cell r="T154">
-            <v>42696.843344907407</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="Q155">
-            <v>2.5</v>
-          </cell>
-          <cell r="R155">
-            <v>85.5</v>
-          </cell>
-          <cell r="S155">
-            <v>9.4</v>
-          </cell>
-          <cell r="T155">
-            <v>42696.843402777777</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="Q156">
-            <v>5</v>
-          </cell>
-          <cell r="R156">
-            <v>82.5</v>
-          </cell>
-          <cell r="S156">
-            <v>9.6</v>
-          </cell>
-          <cell r="T156">
-            <v>42696.843460648146</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="Q157">
-            <v>1</v>
-          </cell>
-          <cell r="R157">
-            <v>81.5</v>
-          </cell>
-          <cell r="S157">
-            <v>8.9</v>
-          </cell>
-          <cell r="T157">
-            <v>42696.843518518515</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="Q158">
-            <v>1.5</v>
-          </cell>
-          <cell r="R158">
-            <v>80.5</v>
-          </cell>
-          <cell r="S158">
-            <v>9.5</v>
-          </cell>
-          <cell r="T158">
-            <v>42696.843576388892</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6999,10 +4885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:U211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7012,7 +4898,7 @@
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7032,7 +4918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7052,7 +4938,7 @@
         <v>256000000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7076,7 +4962,7 @@
         <v>15.066129032258084</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7107,7 +4993,7 @@
         <v>356581.37231454207</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7131,7 +5017,7 @@
         <v>5372300.9657905512</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G6">
         <f>SUM(G2:G5)</f>
         <v>16</v>
@@ -7148,7 +5034,7 @@
         <v>5.3723009657905507</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7156,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7215,7 +5101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42696.458321759259</v>
       </c>
@@ -7268,8 +5154,12 @@
         <f>A10</f>
         <v>42696.458321759259</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <f>S10/R10</f>
+        <v>0.26446280991735538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42696.458379629628</v>
       </c>
@@ -7322,8 +5212,12 @@
         <f t="shared" ref="T11:T74" si="3">A11</f>
         <v>42696.458379629628</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f t="shared" ref="U11:U74" si="4">S11/R11</f>
+        <v>0.26153846153846155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42696.458437499998</v>
       </c>
@@ -7376,8 +5270,12 @@
         <f t="shared" si="3"/>
         <v>42696.458437499998</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>0.2537313432835821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42696.458495370367</v>
       </c>
@@ -7430,8 +5328,12 @@
         <f t="shared" si="3"/>
         <v>42696.458495370367</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>0.24604316546762592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42696.458553240744</v>
       </c>
@@ -7484,8 +5386,12 @@
         <f t="shared" si="3"/>
         <v>42696.458553240744</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0.24397163120567375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42696.458611111113</v>
       </c>
@@ -7538,8 +5444,12 @@
         <f t="shared" si="3"/>
         <v>42696.458611111113</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42696.458668981482</v>
       </c>
@@ -7592,8 +5502,12 @@
         <f t="shared" si="3"/>
         <v>42696.458668981482</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>0.23862068965517241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42696.458726851852</v>
       </c>
@@ -7646,8 +5560,12 @@
         <f t="shared" si="3"/>
         <v>42696.458726851852</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>0.23698630136986301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42696.458784722221</v>
       </c>
@@ -7700,8 +5618,12 @@
         <f t="shared" si="3"/>
         <v>42696.458784722221</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>0.20851063829787234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42696.45884259259</v>
       </c>
@@ -7754,8 +5676,12 @@
         <f t="shared" si="3"/>
         <v>42696.45884259259</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42696.45890046296</v>
       </c>
@@ -7808,8 +5734,12 @@
         <f t="shared" si="3"/>
         <v>42696.45890046296</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42696.458958333336</v>
       </c>
@@ -7862,8 +5792,12 @@
         <f t="shared" si="3"/>
         <v>42696.458958333336</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42696.459016203706</v>
       </c>
@@ -7916,8 +5850,12 @@
         <f t="shared" si="3"/>
         <v>42696.459016203706</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42696.459074074075</v>
       </c>
@@ -7970,8 +5908,12 @@
         <f t="shared" si="3"/>
         <v>42696.459074074075</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0.21134751773049645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42696.459131944444</v>
       </c>
@@ -8024,8 +5966,12 @@
         <f t="shared" si="3"/>
         <v>42696.459131944444</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42696.459189814814</v>
       </c>
@@ -8078,8 +6024,12 @@
         <f t="shared" si="3"/>
         <v>42696.459189814814</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>0.21134751773049645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42696.459247685183</v>
       </c>
@@ -8132,8 +6082,12 @@
         <f t="shared" si="3"/>
         <v>42696.459247685183</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42696.459305555552</v>
       </c>
@@ -8186,8 +6140,12 @@
         <f t="shared" si="3"/>
         <v>42696.459305555552</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42696.459363425929</v>
       </c>
@@ -8240,8 +6198,12 @@
         <f t="shared" si="3"/>
         <v>42696.459363425929</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42696.459421296298</v>
       </c>
@@ -8294,8 +6256,12 @@
         <f t="shared" si="3"/>
         <v>42696.459421296298</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42696.459479166668</v>
       </c>
@@ -8348,8 +6314,12 @@
         <f t="shared" si="3"/>
         <v>42696.459479166668</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42696.459537037037</v>
       </c>
@@ -8402,8 +6372,12 @@
         <f t="shared" si="3"/>
         <v>42696.459537037037</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42696.459594907406</v>
       </c>
@@ -8456,8 +6430,12 @@
         <f t="shared" si="3"/>
         <v>42696.459594907406</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>0.21276595744680851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42696.459652777776</v>
       </c>
@@ -8510,8 +6488,12 @@
         <f t="shared" si="3"/>
         <v>42696.459652777776</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42696.459710648145</v>
       </c>
@@ -8564,8 +6546,12 @@
         <f t="shared" si="3"/>
         <v>42696.459710648145</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42696.459768518522</v>
       </c>
@@ -8618,8 +6604,12 @@
         <f t="shared" si="3"/>
         <v>42696.459768518522</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42696.459826388891</v>
       </c>
@@ -8672,8 +6662,12 @@
         <f t="shared" si="3"/>
         <v>42696.459826388891</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42696.45988425926</v>
       </c>
@@ -8726,8 +6720,12 @@
         <f t="shared" si="3"/>
         <v>42696.45988425926</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42696.45994212963</v>
       </c>
@@ -8780,8 +6778,12 @@
         <f t="shared" si="3"/>
         <v>42696.45994212963</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42696.46</v>
       </c>
@@ -8834,8 +6836,12 @@
         <f t="shared" si="3"/>
         <v>42696.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42696.460057870368</v>
       </c>
@@ -8888,8 +6894,12 @@
         <f t="shared" si="3"/>
         <v>42696.460057870368</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42696.460115740738</v>
       </c>
@@ -8942,8 +6952,12 @@
         <f t="shared" si="3"/>
         <v>42696.460115740738</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42696.460173611114</v>
       </c>
@@ -8996,8 +7010,12 @@
         <f t="shared" si="3"/>
         <v>42696.460173611114</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42696.460231481484</v>
       </c>
@@ -9050,8 +7068,12 @@
         <f t="shared" si="3"/>
         <v>42696.460231481484</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42696.460289351853</v>
       </c>
@@ -9104,8 +7126,12 @@
         <f t="shared" si="3"/>
         <v>42696.460289351853</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42696.460347222222</v>
       </c>
@@ -9158,8 +7184,12 @@
         <f t="shared" si="3"/>
         <v>42696.460347222222</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42696.460405092592</v>
       </c>
@@ -9212,8 +7242,12 @@
         <f t="shared" si="3"/>
         <v>42696.460405092592</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42696.460462962961</v>
       </c>
@@ -9266,8 +7300,12 @@
         <f t="shared" si="3"/>
         <v>42696.460462962961</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42696.460520833331</v>
       </c>
@@ -9320,8 +7358,12 @@
         <f t="shared" si="3"/>
         <v>42696.460520833331</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42696.460578703707</v>
       </c>
@@ -9374,8 +7416,12 @@
         <f t="shared" si="3"/>
         <v>42696.460578703707</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42696.460636574076</v>
       </c>
@@ -9428,8 +7474,12 @@
         <f t="shared" si="3"/>
         <v>42696.460636574076</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42696.460694444446</v>
       </c>
@@ -9482,8 +7532,12 @@
         <f t="shared" si="3"/>
         <v>42696.460694444446</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42696.460752314815</v>
       </c>
@@ -9536,8 +7590,12 @@
         <f t="shared" si="3"/>
         <v>42696.460752314815</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42696.460810185185</v>
       </c>
@@ -9590,8 +7648,12 @@
         <f t="shared" si="3"/>
         <v>42696.460810185185</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42696.460868055554</v>
       </c>
@@ -9644,8 +7706,12 @@
         <f t="shared" si="3"/>
         <v>42696.460868055554</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42696.460925925923</v>
       </c>
@@ -9698,8 +7764,12 @@
         <f t="shared" si="3"/>
         <v>42696.460925925923</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42696.4609837963</v>
       </c>
@@ -9752,8 +7822,12 @@
         <f t="shared" si="3"/>
         <v>42696.4609837963</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42696.461041666669</v>
       </c>
@@ -9806,8 +7880,12 @@
         <f t="shared" si="3"/>
         <v>42696.461041666669</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42696.461099537039</v>
       </c>
@@ -9860,8 +7938,12 @@
         <f t="shared" si="3"/>
         <v>42696.461099537039</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>0.20551724137931035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42696.461157407408</v>
       </c>
@@ -9914,8 +7996,12 @@
         <f t="shared" si="3"/>
         <v>42696.461157407408</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42696.461215277777</v>
       </c>
@@ -9968,8 +8054,12 @@
         <f t="shared" si="3"/>
         <v>42696.461215277777</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42696.461273148147</v>
       </c>
@@ -10022,8 +8112,12 @@
         <f t="shared" si="3"/>
         <v>42696.461273148147</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42696.461331018516</v>
       </c>
@@ -10076,8 +8170,12 @@
         <f t="shared" si="3"/>
         <v>42696.461331018516</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42696.461388888885</v>
       </c>
@@ -10130,8 +8228,12 @@
         <f t="shared" si="3"/>
         <v>42696.461388888885</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42696.461446759262</v>
       </c>
@@ -10184,8 +8286,12 @@
         <f t="shared" si="3"/>
         <v>42696.461446759262</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42696.461504629631</v>
       </c>
@@ -10238,8 +8344,12 @@
         <f t="shared" si="3"/>
         <v>42696.461504629631</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42696.461562500001</v>
       </c>
@@ -10292,8 +8402,12 @@
         <f t="shared" si="3"/>
         <v>42696.461562500001</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42696.46162037037</v>
       </c>
@@ -10346,8 +8460,12 @@
         <f t="shared" si="3"/>
         <v>42696.46162037037</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67">
+        <f t="shared" si="4"/>
+        <v>0.20551724137931035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42696.461678240739</v>
       </c>
@@ -10400,8 +8518,12 @@
         <f t="shared" si="3"/>
         <v>42696.461678240739</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42696.461736111109</v>
       </c>
@@ -10454,8 +8576,12 @@
         <f t="shared" si="3"/>
         <v>42696.461736111109</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42696.461793981478</v>
       </c>
@@ -10508,8 +8634,12 @@
         <f t="shared" si="3"/>
         <v>42696.461793981478</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42696.461851851855</v>
       </c>
@@ -10562,8 +8692,12 @@
         <f t="shared" si="3"/>
         <v>42696.461851851855</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42696.461909722224</v>
       </c>
@@ -10616,8 +8750,12 @@
         <f t="shared" si="3"/>
         <v>42696.461909722224</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72">
+        <f t="shared" si="4"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42696.461967592593</v>
       </c>
@@ -10670,8 +8808,12 @@
         <f t="shared" si="3"/>
         <v>42696.461967592593</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42696.462025462963</v>
       </c>
@@ -10724,8 +8866,12 @@
         <f t="shared" si="3"/>
         <v>42696.462025462963</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74">
+        <f t="shared" si="4"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42696.462083333332</v>
       </c>
@@ -10763,23 +8909,27 @@
         <v>14.9</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:Q138" si="4">AVERAGE(H75,M75)</f>
+        <f t="shared" ref="Q75:Q138" si="5">AVERAGE(H75,M75)</f>
         <v>100</v>
       </c>
       <c r="R75">
-        <f t="shared" ref="R75:R138" si="5">AVERAGE(B75:C75)</f>
+        <f t="shared" ref="R75:R138" si="6">AVERAGE(B75:C75)</f>
         <v>71</v>
       </c>
       <c r="S75">
-        <f t="shared" ref="S75:S138" si="6">O75</f>
+        <f t="shared" ref="S75:S138" si="7">O75</f>
         <v>14.9</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" ref="T75:T138" si="7">A75</f>
+        <f t="shared" ref="T75:T138" si="8">A75</f>
         <v>42696.462083333332</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U75">
+        <f t="shared" ref="U75:U138" si="9">S75/R75</f>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42696.462141203701</v>
       </c>
@@ -10817,23 +8967,27 @@
         <v>15</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462141203701</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U76">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42696.462199074071</v>
       </c>
@@ -10871,23 +9025,27 @@
         <v>14.9</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462199074071</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42696.462256944447</v>
       </c>
@@ -10925,23 +9083,27 @@
         <v>14.9</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462256944447</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U78">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42696.462314814817</v>
       </c>
@@ -10979,23 +9141,27 @@
         <v>14.9</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="S79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462314814817</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79">
+        <f t="shared" si="9"/>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42696.462372685186</v>
       </c>
@@ -11033,23 +9199,27 @@
         <v>14.9</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462372685186</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42696.462430555555</v>
       </c>
@@ -11087,23 +9257,27 @@
         <v>14.9</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462430555555</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42696.462488425925</v>
       </c>
@@ -11141,23 +9315,27 @@
         <v>15</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462488425925</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U82">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42696.462546296294</v>
       </c>
@@ -11195,23 +9373,27 @@
         <v>14.9</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462546296294</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U83">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42696.462604166663</v>
       </c>
@@ -11249,23 +9431,27 @@
         <v>14.9</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="S84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462604166663</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U84">
+        <f t="shared" si="9"/>
+        <v>0.20985915492957746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42696.46266203704</v>
       </c>
@@ -11303,23 +9489,27 @@
         <v>15</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.46266203704</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U85">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42696.462719907409</v>
       </c>
@@ -11357,23 +9547,27 @@
         <v>14.9</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462719907409</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U86">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42696.462777777779</v>
       </c>
@@ -11411,23 +9605,27 @@
         <v>14.9</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462777777779</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U87">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42696.462835648148</v>
       </c>
@@ -11465,23 +9663,27 @@
         <v>15</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462835648148</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42696.462893518517</v>
       </c>
@@ -11519,23 +9721,27 @@
         <v>14.9</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462893518517</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U89">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42696.462951388887</v>
       </c>
@@ -11573,23 +9779,27 @@
         <v>15</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.462951388887</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U90">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42696.463009259256</v>
       </c>
@@ -11627,23 +9837,27 @@
         <v>14.9</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463009259256</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U91">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42696.463067129633</v>
       </c>
@@ -11681,23 +9895,27 @@
         <v>14.9</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463067129633</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42696.463125000002</v>
       </c>
@@ -11735,23 +9953,27 @@
         <v>14.9</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463125000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42696.463182870371</v>
       </c>
@@ -11789,23 +10011,27 @@
         <v>15</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463182870371</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42696.463240740741</v>
       </c>
@@ -11843,23 +10069,27 @@
         <v>15</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463240740741</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42696.46329861111</v>
       </c>
@@ -11897,23 +10127,27 @@
         <v>15</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.46329861111</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U96">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42696.463356481479</v>
       </c>
@@ -11951,23 +10185,27 @@
         <v>14.9</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463356481479</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U97">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42696.463414351849</v>
       </c>
@@ -12005,23 +10243,27 @@
         <v>15</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463414351849</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U98">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42696.463472222225</v>
       </c>
@@ -12059,23 +10301,27 @@
         <v>15</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="S99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463472222225</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99">
+        <f t="shared" si="9"/>
+        <v>0.20547945205479451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42696.463530092595</v>
       </c>
@@ -12113,23 +10359,27 @@
         <v>14.9</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463530092595</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42696.463587962964</v>
       </c>
@@ -12167,23 +10417,27 @@
         <v>14.9</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463587962964</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42696.463645833333</v>
       </c>
@@ -12221,23 +10475,27 @@
         <v>15</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463645833333</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42696.463703703703</v>
       </c>
@@ -12275,23 +10533,27 @@
         <v>14.9</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.5</v>
       </c>
       <c r="S103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463703703703</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U103">
+        <f t="shared" si="9"/>
+        <v>0.20551724137931035</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42696.463761574072</v>
       </c>
@@ -12329,23 +10591,27 @@
         <v>14.9</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463761574072</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U104">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42696.463819444441</v>
       </c>
@@ -12383,23 +10649,27 @@
         <v>14.9</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463819444441</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U105">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42696.463877314818</v>
       </c>
@@ -12437,23 +10707,27 @@
         <v>14.9</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463877314818</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42696.463935185187</v>
       </c>
@@ -12491,23 +10765,27 @@
         <v>15</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463935185187</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42696.463993055557</v>
       </c>
@@ -12545,23 +10823,27 @@
         <v>14.9</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.463993055557</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42696.464050925926</v>
       </c>
@@ -12599,23 +10881,27 @@
         <v>15</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464050925926</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U109">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42696.464108796295</v>
       </c>
@@ -12653,23 +10939,27 @@
         <v>14.9</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464108796295</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U110">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42696.464166666665</v>
       </c>
@@ -12707,23 +10997,27 @@
         <v>14.9</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464166666665</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U111">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42696.464224537034</v>
       </c>
@@ -12761,23 +11055,27 @@
         <v>14.9</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464224537034</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U112">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42696.464282407411</v>
       </c>
@@ -12815,23 +11113,27 @@
         <v>14.9</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464282407411</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U113">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42696.46434027778</v>
       </c>
@@ -12869,23 +11171,27 @@
         <v>14.9</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.46434027778</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U114">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42696.464398148149</v>
       </c>
@@ -12923,23 +11229,27 @@
         <v>15</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464398148149</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U115">
+        <f t="shared" si="9"/>
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42696.464456018519</v>
       </c>
@@ -12977,23 +11287,27 @@
         <v>14.9</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464456018519</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42696.464513888888</v>
       </c>
@@ -13031,23 +11345,27 @@
         <v>15</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464513888888</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U117">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42696.464571759258</v>
       </c>
@@ -13085,23 +11403,27 @@
         <v>14.9</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464571759258</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U118">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42696.464629629627</v>
       </c>
@@ -13139,23 +11461,27 @@
         <v>14.9</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464629629627</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U119">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42696.464687500003</v>
       </c>
@@ -13193,23 +11519,27 @@
         <v>14.9</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464687500003</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42696.464745370373</v>
       </c>
@@ -13247,23 +11577,27 @@
         <v>15</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464745370373</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U121">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42696.464803240742</v>
       </c>
@@ -13301,23 +11635,27 @@
         <v>14.9</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464803240742</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U122">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42696.464861111112</v>
       </c>
@@ -13355,23 +11693,27 @@
         <v>14.9</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464861111112</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U123">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42696.464918981481</v>
       </c>
@@ -13409,23 +11751,27 @@
         <v>15</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.464918981481</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U124">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42696.46497685185</v>
       </c>
@@ -13463,23 +11809,27 @@
         <v>15.1</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.1</v>
       </c>
       <c r="T125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.46497685185</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U125">
+        <f t="shared" si="9"/>
+        <v>0.20972222222222223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42696.46503472222</v>
       </c>
@@ -13517,23 +11867,27 @@
         <v>14.9</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.46503472222</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U126">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>42696.465092592596</v>
       </c>
@@ -13571,23 +11925,27 @@
         <v>15</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465092592596</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U127">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>42696.465150462966</v>
       </c>
@@ -13625,23 +11983,27 @@
         <v>14.9</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465150462966</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U128">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>42696.465208333335</v>
       </c>
@@ -13679,23 +12041,27 @@
         <v>14.9</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465208333335</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U129">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>42696.465266203704</v>
       </c>
@@ -13733,23 +12099,27 @@
         <v>14.9</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465266203704</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U130">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>42696.465324074074</v>
       </c>
@@ -13787,23 +12157,27 @@
         <v>15</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="S131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T131" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465324074074</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U131">
+        <f t="shared" si="9"/>
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>42696.465381944443</v>
       </c>
@@ -13841,23 +12215,27 @@
         <v>14.9</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71.5</v>
       </c>
       <c r="S132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465381944443</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U132">
+        <f t="shared" si="9"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>42696.465439814812</v>
       </c>
@@ -13895,23 +12273,27 @@
         <v>14.9</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T133" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465439814812</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U133">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42696.465497685182</v>
       </c>
@@ -13949,23 +12331,27 @@
         <v>14.9</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T134" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465497685182</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U134">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42696.465555555558</v>
       </c>
@@ -14003,23 +12389,27 @@
         <v>14.9</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T135" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465555555558</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U135">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>42696.465613425928</v>
       </c>
@@ -14057,23 +12447,27 @@
         <v>15</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.5</v>
       </c>
       <c r="S136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T136" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465613425928</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U136">
+        <f t="shared" si="9"/>
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42696.465671296297</v>
       </c>
@@ -14111,23 +12505,27 @@
         <v>14.9</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T137" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465671296297</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U137">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42696.465729166666</v>
       </c>
@@ -14165,23 +12563,27 @@
         <v>14.9</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="R138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="S138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T138" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42696.465729166666</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U138">
+        <f t="shared" si="9"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42696.465787037036</v>
       </c>
@@ -14219,23 +12621,27 @@
         <v>14.9</v>
       </c>
       <c r="Q139">
-        <f t="shared" ref="Q139:Q140" si="8">AVERAGE(H139,M139)</f>
+        <f t="shared" ref="Q139:Q140" si="10">AVERAGE(H139,M139)</f>
         <v>100</v>
       </c>
       <c r="R139">
-        <f t="shared" ref="R139:R140" si="9">AVERAGE(B139:C139)</f>
+        <f t="shared" ref="R139:R140" si="11">AVERAGE(B139:C139)</f>
         <v>72</v>
       </c>
       <c r="S139">
-        <f t="shared" ref="S139:S140" si="10">O139</f>
+        <f t="shared" ref="S139:S140" si="12">O139</f>
         <v>14.9</v>
       </c>
       <c r="T139" s="2">
-        <f t="shared" ref="T139:T140" si="11">A139</f>
+        <f t="shared" ref="T139:T140" si="13">A139</f>
         <v>42696.465787037036</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U139">
+        <f t="shared" ref="U139:U202" si="14">S139/R139</f>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42696.465844907405</v>
       </c>
@@ -14273,23 +12679,27 @@
         <v>14.9</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>71.5</v>
       </c>
       <c r="S140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14.9</v>
       </c>
       <c r="T140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42696.465844907405</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U140">
+        <f t="shared" si="14"/>
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42696.465902777774</v>
       </c>
@@ -14327,23 +12737,27 @@
         <v>14.9</v>
       </c>
       <c r="Q141">
-        <f t="shared" ref="Q141:Q204" si="12">AVERAGE(H141,M141)</f>
+        <f t="shared" ref="Q141:Q204" si="15">AVERAGE(H141,M141)</f>
         <v>100</v>
       </c>
       <c r="R141">
-        <f t="shared" ref="R141:R204" si="13">AVERAGE(B141:C141)</f>
+        <f t="shared" ref="R141:R204" si="16">AVERAGE(B141:C141)</f>
         <v>72</v>
       </c>
       <c r="S141">
-        <f t="shared" ref="S141:S204" si="14">O141</f>
+        <f t="shared" ref="S141:S204" si="17">O141</f>
         <v>14.9</v>
       </c>
       <c r="T141" s="2">
-        <f t="shared" ref="T141:T204" si="15">A141</f>
+        <f t="shared" ref="T141:T204" si="18">A141</f>
         <v>42696.465902777774</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U141">
+        <f t="shared" si="14"/>
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42696.465960648151</v>
       </c>
@@ -14381,23 +12795,27 @@
         <v>14.9</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71.5</v>
       </c>
       <c r="S142">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T142" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.465960648151</v>
+      </c>
+      <c r="U142">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T142" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.465960648151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>42696.46601851852</v>
       </c>
@@ -14435,23 +12853,27 @@
         <v>15</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="S143">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T143" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46601851852</v>
+      </c>
+      <c r="U143">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T143" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46601851852</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>42696.46607638889</v>
       </c>
@@ -14489,23 +12911,27 @@
         <v>15</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="S144">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T144" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46607638889</v>
+      </c>
+      <c r="U144">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T144" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46607638889</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.21126760563380281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>42696.466134259259</v>
       </c>
@@ -14543,23 +12969,27 @@
         <v>15</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S145">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T145" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466134259259</v>
+      </c>
+      <c r="U145">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T145" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466134259259</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>42696.466192129628</v>
       </c>
@@ -14597,23 +13027,27 @@
         <v>15</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S146">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T146" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466192129628</v>
+      </c>
+      <c r="U146">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T146" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466192129628</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>42696.466249999998</v>
       </c>
@@ -14651,23 +13085,27 @@
         <v>15</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S147">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T147" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466249999998</v>
+      </c>
+      <c r="U147">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T147" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466249999998</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42696.466307870367</v>
       </c>
@@ -14705,23 +13143,27 @@
         <v>14.9</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S148">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T148" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466307870367</v>
+      </c>
+      <c r="U148">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T148" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466307870367</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42696.466365740744</v>
       </c>
@@ -14759,23 +13201,27 @@
         <v>14.9</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S149">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T149" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466365740744</v>
+      </c>
+      <c r="U149">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T149" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466365740744</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42696.466423611113</v>
       </c>
@@ -14813,23 +13259,27 @@
         <v>14.8</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S150">
+        <f t="shared" si="17"/>
+        <v>14.8</v>
+      </c>
+      <c r="T150" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466423611113</v>
+      </c>
+      <c r="U150">
         <f t="shared" si="14"/>
-        <v>14.8</v>
-      </c>
-      <c r="T150" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466423611113</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20555555555555557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42696.466481481482</v>
       </c>
@@ -14867,23 +13317,27 @@
         <v>14.9</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72.5</v>
       </c>
       <c r="S151">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T151" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466481481482</v>
+      </c>
+      <c r="U151">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T151" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466481481482</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20551724137931035</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42696.466539351852</v>
       </c>
@@ -14921,23 +13375,27 @@
         <v>15</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72.5</v>
       </c>
       <c r="S152">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T152" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466539351852</v>
+      </c>
+      <c r="U152">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T152" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466539351852</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42696.466597222221</v>
       </c>
@@ -14975,23 +13433,27 @@
         <v>15</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S153">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T153" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466597222221</v>
+      </c>
+      <c r="U153">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T153" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466597222221</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>42696.46665509259</v>
       </c>
@@ -15029,23 +13491,27 @@
         <v>15</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S154">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T154" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46665509259</v>
+      </c>
+      <c r="U154">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T154" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46665509259</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>42696.46671296296</v>
       </c>
@@ -15083,23 +13549,27 @@
         <v>14.9</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71.5</v>
       </c>
       <c r="S155">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T155" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46671296296</v>
+      </c>
+      <c r="U155">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T155" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46671296296</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42696.466770833336</v>
       </c>
@@ -15137,23 +13607,27 @@
         <v>14.9</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S156">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T156" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466770833336</v>
+      </c>
+      <c r="U156">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T156" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466770833336</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42696.466828703706</v>
       </c>
@@ -15191,23 +13665,27 @@
         <v>14.9</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S157">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T157" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466828703706</v>
+      </c>
+      <c r="U157">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T157" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466828703706</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>42696.466886574075</v>
       </c>
@@ -15245,23 +13723,27 @@
         <v>14.9</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S158">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T158" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466886574075</v>
+      </c>
+      <c r="U158">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T158" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466886574075</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>42696.466944444444</v>
       </c>
@@ -15299,23 +13781,27 @@
         <v>14.9</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S159">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T159" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.466944444444</v>
+      </c>
+      <c r="U159">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T159" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.466944444444</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>42696.467002314814</v>
       </c>
@@ -15353,23 +13839,27 @@
         <v>14.9</v>
       </c>
       <c r="Q160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>72</v>
       </c>
       <c r="S160">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T160" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467002314814</v>
+      </c>
+      <c r="U160">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T160" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467002314814</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20694444444444446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>42696.467060185183</v>
       </c>
@@ -15407,23 +13897,27 @@
         <v>15</v>
       </c>
       <c r="Q161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71.5</v>
       </c>
       <c r="S161">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="T161" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467060185183</v>
+      </c>
+      <c r="U161">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="T161" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467060185183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20979020979020979</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>42696.467118055552</v>
       </c>
@@ -15461,23 +13955,27 @@
         <v>14.9</v>
       </c>
       <c r="Q162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="R162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>71.5</v>
       </c>
       <c r="S162">
+        <f t="shared" si="17"/>
+        <v>14.9</v>
+      </c>
+      <c r="T162" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467118055552</v>
+      </c>
+      <c r="U162">
         <f t="shared" si="14"/>
-        <v>14.9</v>
-      </c>
-      <c r="T162" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467118055552</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20839160839160839</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>42696.467175925929</v>
       </c>
@@ -15515,23 +14013,27 @@
         <v>3.8</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18.5</v>
       </c>
       <c r="R163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60.5</v>
       </c>
       <c r="S163">
+        <f t="shared" si="17"/>
+        <v>3.8</v>
+      </c>
+      <c r="T163" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467175925929</v>
+      </c>
+      <c r="U163">
         <f t="shared" si="14"/>
-        <v>3.8</v>
-      </c>
-      <c r="T163" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467175925929</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.2809917355371891E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>42696.467233796298</v>
       </c>
@@ -15569,23 +14071,27 @@
         <v>3.3</v>
       </c>
       <c r="Q164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="S164">
+        <f t="shared" si="17"/>
+        <v>3.3</v>
+      </c>
+      <c r="T164" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467233796298</v>
+      </c>
+      <c r="U164">
         <f t="shared" si="14"/>
-        <v>3.3</v>
-      </c>
-      <c r="T164" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467233796298</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.7894736842105263E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>42696.467291666668</v>
       </c>
@@ -15623,23 +14129,27 @@
         <v>3.1</v>
       </c>
       <c r="Q165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="R165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="S165">
+        <f t="shared" si="17"/>
+        <v>3.1</v>
+      </c>
+      <c r="T165" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467291666668</v>
+      </c>
+      <c r="U165">
         <f t="shared" si="14"/>
-        <v>3.1</v>
-      </c>
-      <c r="T165" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467291666668</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.7407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>42696.467349537037</v>
       </c>
@@ -15677,23 +14187,27 @@
         <v>2.9</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>51.5</v>
       </c>
       <c r="S166">
+        <f t="shared" si="17"/>
+        <v>2.9</v>
+      </c>
+      <c r="T166" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467349537037</v>
+      </c>
+      <c r="U166">
         <f t="shared" si="14"/>
-        <v>2.9</v>
-      </c>
-      <c r="T166" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467349537037</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.6310679611650483E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>42696.467407407406</v>
       </c>
@@ -15731,23 +14245,27 @@
         <v>3</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>51.5</v>
       </c>
       <c r="S167">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="T167" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467407407406</v>
+      </c>
+      <c r="U167">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="T167" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467407407406</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.8252427184466021E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>42696.467465277776</v>
       </c>
@@ -15785,23 +14303,27 @@
         <v>3.3</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
       <c r="R168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="S168">
+        <f t="shared" si="17"/>
+        <v>3.3</v>
+      </c>
+      <c r="T168" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467465277776</v>
+      </c>
+      <c r="U168">
         <f t="shared" si="14"/>
-        <v>3.3</v>
-      </c>
-      <c r="T168" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467465277776</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>42696.467523148145</v>
       </c>
@@ -15839,23 +14361,27 @@
         <v>3.4</v>
       </c>
       <c r="Q169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="R169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="S169">
+        <f t="shared" si="17"/>
+        <v>3.4</v>
+      </c>
+      <c r="T169" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467523148145</v>
+      </c>
+      <c r="U169">
         <f t="shared" si="14"/>
-        <v>3.4</v>
-      </c>
-      <c r="T169" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467523148145</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>42696.467581018522</v>
       </c>
@@ -15893,23 +14419,27 @@
         <v>1.8</v>
       </c>
       <c r="Q170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="R170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="S170">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="T170" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467581018522</v>
+      </c>
+      <c r="U170">
         <f t="shared" si="14"/>
-        <v>1.8</v>
-      </c>
-      <c r="T170" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467581018522</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42696.467638888891</v>
       </c>
@@ -15947,23 +14477,27 @@
         <v>2.4</v>
       </c>
       <c r="Q171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.5</v>
       </c>
       <c r="R171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="S171">
+        <f t="shared" si="17"/>
+        <v>2.4</v>
+      </c>
+      <c r="T171" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467638888891</v>
+      </c>
+      <c r="U171">
         <f t="shared" si="14"/>
-        <v>2.4</v>
-      </c>
-      <c r="T171" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467638888891</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.8979591836734691E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42696.46769675926</v>
       </c>
@@ -16001,23 +14535,27 @@
         <v>3.2</v>
       </c>
       <c r="Q172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.5</v>
       </c>
       <c r="R172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="S172">
+        <f t="shared" si="17"/>
+        <v>3.2</v>
+      </c>
+      <c r="T172" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46769675926</v>
+      </c>
+      <c r="U172">
         <f t="shared" si="14"/>
-        <v>3.2</v>
-      </c>
-      <c r="T172" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46769675926</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.5306122448979598E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42696.46775462963</v>
       </c>
@@ -16055,23 +14593,27 @@
         <v>1.9</v>
       </c>
       <c r="Q173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="R173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="S173">
+        <f t="shared" si="17"/>
+        <v>1.9</v>
+      </c>
+      <c r="T173" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46775462963</v>
+      </c>
+      <c r="U173">
         <f t="shared" si="14"/>
-        <v>1.9</v>
-      </c>
-      <c r="T173" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46775462963</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3.9583333333333331E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42696.467812499999</v>
       </c>
@@ -16109,23 +14651,27 @@
         <v>4.3</v>
       </c>
       <c r="Q174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18.5</v>
       </c>
       <c r="R174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48.5</v>
       </c>
       <c r="S174">
+        <f t="shared" si="17"/>
+        <v>4.3</v>
+      </c>
+      <c r="T174" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467812499999</v>
+      </c>
+      <c r="U174">
         <f t="shared" si="14"/>
-        <v>4.3</v>
-      </c>
-      <c r="T174" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467812499999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.865979381443298E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42696.467870370368</v>
       </c>
@@ -16163,23 +14709,27 @@
         <v>12.4</v>
       </c>
       <c r="Q175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="R175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>54.5</v>
       </c>
       <c r="S175">
+        <f t="shared" si="17"/>
+        <v>12.4</v>
+      </c>
+      <c r="T175" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467870370368</v>
+      </c>
+      <c r="U175">
         <f t="shared" si="14"/>
-        <v>12.4</v>
-      </c>
-      <c r="T175" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467870370368</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.22752293577981653</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42696.467928240738</v>
       </c>
@@ -16217,23 +14767,27 @@
         <v>2.9</v>
       </c>
       <c r="Q176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="R176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="S176">
+        <f t="shared" si="17"/>
+        <v>2.9</v>
+      </c>
+      <c r="T176" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467928240738</v>
+      </c>
+      <c r="U176">
         <f t="shared" si="14"/>
-        <v>2.9</v>
-      </c>
-      <c r="T176" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467928240738</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.0416666666666667E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42696.467986111114</v>
       </c>
@@ -16271,23 +14825,27 @@
         <v>2.6</v>
       </c>
       <c r="Q177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="R177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47.5</v>
       </c>
       <c r="S177">
+        <f t="shared" si="17"/>
+        <v>2.6</v>
+      </c>
+      <c r="T177" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.467986111114</v>
+      </c>
+      <c r="U177">
         <f t="shared" si="14"/>
-        <v>2.6</v>
-      </c>
-      <c r="T177" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.467986111114</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.473684210526316E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>42696.468043981484</v>
       </c>
@@ -16325,23 +14883,27 @@
         <v>3.3</v>
       </c>
       <c r="Q178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="R178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46.5</v>
       </c>
       <c r="S178">
+        <f t="shared" si="17"/>
+        <v>3.3</v>
+      </c>
+      <c r="T178" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468043981484</v>
+      </c>
+      <c r="U178">
         <f t="shared" si="14"/>
-        <v>3.3</v>
-      </c>
-      <c r="T178" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468043981484</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.0967741935483872E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>42696.468101851853</v>
       </c>
@@ -16379,23 +14941,27 @@
         <v>3</v>
       </c>
       <c r="Q179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="R179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47.5</v>
       </c>
       <c r="S179">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="T179" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468101851853</v>
+      </c>
+      <c r="U179">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="T179" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468101851853</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.3157894736842107E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>42696.468159722222</v>
       </c>
@@ -16433,23 +14999,27 @@
         <v>2</v>
       </c>
       <c r="Q180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="R180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46.5</v>
       </c>
       <c r="S180">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="T180" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468159722222</v>
+      </c>
+      <c r="U180">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="T180" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468159722222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.3010752688172046E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>42696.468217592592</v>
       </c>
@@ -16487,23 +15057,27 @@
         <v>2.8</v>
       </c>
       <c r="Q181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="R181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="S181">
+        <f t="shared" si="17"/>
+        <v>2.8</v>
+      </c>
+      <c r="T181" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468217592592</v>
+      </c>
+      <c r="U181">
         <f t="shared" si="14"/>
-        <v>2.8</v>
-      </c>
-      <c r="T181" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468217592592</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5.9574468085106379E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>42696.468275462961</v>
       </c>
@@ -16541,23 +15115,27 @@
         <v>2.9</v>
       </c>
       <c r="Q182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="R182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="S182">
+        <f t="shared" si="17"/>
+        <v>2.9</v>
+      </c>
+      <c r="T182" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468275462961</v>
+      </c>
+      <c r="U182">
         <f t="shared" si="14"/>
-        <v>2.9</v>
-      </c>
-      <c r="T182" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468275462961</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.3043478260869562E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42696.468333333331</v>
       </c>
@@ -16595,23 +15173,27 @@
         <v>2.8</v>
       </c>
       <c r="Q183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="R183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="S183">
+        <f t="shared" si="17"/>
+        <v>2.8</v>
+      </c>
+      <c r="T183" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468333333331</v>
+      </c>
+      <c r="U183">
         <f t="shared" si="14"/>
-        <v>2.8</v>
-      </c>
-      <c r="T183" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468333333331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.08695652173913E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>42696.468391203707</v>
       </c>
@@ -16649,23 +15231,27 @@
         <v>2.8</v>
       </c>
       <c r="Q184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="R184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="S184">
+        <f t="shared" si="17"/>
+        <v>2.8</v>
+      </c>
+      <c r="T184" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468391203707</v>
+      </c>
+      <c r="U184">
         <f t="shared" si="14"/>
-        <v>2.8</v>
-      </c>
-      <c r="T184" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468391203707</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.08695652173913E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>42696.468449074076</v>
       </c>
@@ -16703,23 +15289,27 @@
         <v>4.2</v>
       </c>
       <c r="Q185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="R185">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="S185">
+        <f t="shared" si="17"/>
+        <v>4.2</v>
+      </c>
+      <c r="T185" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468449074076</v>
+      </c>
+      <c r="U185">
         <f t="shared" si="14"/>
-        <v>4.2</v>
-      </c>
-      <c r="T185" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468449074076</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.9361702127659579E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>42696.468506944446</v>
       </c>
@@ -16757,23 +15347,27 @@
         <v>3.2</v>
       </c>
       <c r="Q186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="R186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>46.5</v>
       </c>
       <c r="S186">
+        <f t="shared" si="17"/>
+        <v>3.2</v>
+      </c>
+      <c r="T186" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468506944446</v>
+      </c>
+      <c r="U186">
         <f t="shared" si="14"/>
-        <v>3.2</v>
-      </c>
-      <c r="T186" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468506944446</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.8817204301075269E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>42696.468564814815</v>
       </c>
@@ -16811,23 +15405,27 @@
         <v>3.6</v>
       </c>
       <c r="Q187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20.5</v>
       </c>
       <c r="R187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47.5</v>
       </c>
       <c r="S187">
+        <f t="shared" si="17"/>
+        <v>3.6</v>
+      </c>
+      <c r="T187" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468564814815</v>
+      </c>
+      <c r="U187">
         <f t="shared" si="14"/>
-        <v>3.6</v>
-      </c>
-      <c r="T187" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468564814815</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.5789473684210532E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>42696.468622685185</v>
       </c>
@@ -16865,23 +15463,27 @@
         <v>3.8</v>
       </c>
       <c r="Q188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>16.5</v>
       </c>
       <c r="R188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47.5</v>
       </c>
       <c r="S188">
+        <f t="shared" si="17"/>
+        <v>3.8</v>
+      </c>
+      <c r="T188" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468622685185</v>
+      </c>
+      <c r="U188">
         <f t="shared" si="14"/>
-        <v>3.8</v>
-      </c>
-      <c r="T188" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468622685185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>42696.468680555554</v>
       </c>
@@ -16919,23 +15521,27 @@
         <v>6.2</v>
       </c>
       <c r="Q189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18.5</v>
       </c>
       <c r="R189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="S189">
+        <f t="shared" si="17"/>
+        <v>6.2</v>
+      </c>
+      <c r="T189" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468680555554</v>
+      </c>
+      <c r="U189">
         <f t="shared" si="14"/>
-        <v>6.2</v>
-      </c>
-      <c r="T189" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468680555554</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.12653061224489795</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>42696.468738425923</v>
       </c>
@@ -16973,23 +15579,27 @@
         <v>11.2</v>
       </c>
       <c r="Q190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="R190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="S190">
+        <f t="shared" si="17"/>
+        <v>11.2</v>
+      </c>
+      <c r="T190" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468738425923</v>
+      </c>
+      <c r="U190">
         <f t="shared" si="14"/>
-        <v>11.2</v>
-      </c>
-      <c r="T190" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468738425923</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.21132075471698111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42696.4687962963</v>
       </c>
@@ -17027,23 +15637,27 @@
         <v>6.8</v>
       </c>
       <c r="Q191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24.5</v>
       </c>
       <c r="R191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="S191">
+        <f t="shared" si="17"/>
+        <v>6.8</v>
+      </c>
+      <c r="T191" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.4687962963</v>
+      </c>
+      <c r="U191">
         <f t="shared" si="14"/>
-        <v>6.8</v>
-      </c>
-      <c r="T191" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.4687962963</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.13877551020408163</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>42696.468854166669</v>
       </c>
@@ -17081,23 +15695,27 @@
         <v>12</v>
       </c>
       <c r="Q192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>43.5</v>
       </c>
       <c r="R192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="S192">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="T192" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468854166669</v>
+      </c>
+      <c r="U192">
         <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="T192" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468854166669</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>42696.468912037039</v>
       </c>
@@ -17135,23 +15753,27 @@
         <v>3.8</v>
       </c>
       <c r="Q193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13.5</v>
       </c>
       <c r="R193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="S193">
+        <f t="shared" si="17"/>
+        <v>3.8</v>
+      </c>
+      <c r="T193" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468912037039</v>
+      </c>
+      <c r="U193">
         <f t="shared" si="14"/>
-        <v>3.8</v>
-      </c>
-      <c r="T193" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468912037039</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.7551020408163265E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42696.468969907408</v>
       </c>
@@ -17189,23 +15811,27 @@
         <v>7.9</v>
       </c>
       <c r="Q194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25.5</v>
       </c>
       <c r="R194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49.5</v>
       </c>
       <c r="S194">
+        <f t="shared" si="17"/>
+        <v>7.9</v>
+      </c>
+      <c r="T194" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.468969907408</v>
+      </c>
+      <c r="U194">
         <f t="shared" si="14"/>
-        <v>7.9</v>
-      </c>
-      <c r="T194" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.468969907408</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.1595959595959596</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42696.469027777777</v>
       </c>
@@ -17243,23 +15869,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Q195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="R195">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="S195">
+        <f t="shared" si="17"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T195" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469027777777</v>
+      </c>
+      <c r="U195">
         <f t="shared" si="14"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T195" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469027777777</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.5416666666666655E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42696.469097222223</v>
       </c>
@@ -17297,23 +15927,27 @@
         <v>11.8</v>
       </c>
       <c r="Q196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="R196">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="S196">
+        <f t="shared" si="17"/>
+        <v>11.8</v>
+      </c>
+      <c r="T196" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469097222223</v>
+      </c>
+      <c r="U196">
         <f t="shared" si="14"/>
-        <v>11.8</v>
-      </c>
-      <c r="T196" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469097222223</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.21454545454545457</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42696.469143518516</v>
       </c>
@@ -17351,23 +15985,27 @@
         <v>12</v>
       </c>
       <c r="Q197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="R197">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>55.5</v>
       </c>
       <c r="S197">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="T197" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469143518516</v>
+      </c>
+      <c r="U197">
         <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="T197" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469143518516</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.21621621621621623</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42696.469201388885</v>
       </c>
@@ -17405,23 +16043,27 @@
         <v>3.7</v>
       </c>
       <c r="Q198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="R198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48.5</v>
       </c>
       <c r="S198">
+        <f t="shared" si="17"/>
+        <v>3.7</v>
+      </c>
+      <c r="T198" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469201388885</v>
+      </c>
+      <c r="U198">
         <f t="shared" si="14"/>
-        <v>3.7</v>
-      </c>
-      <c r="T198" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469201388885</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.628865979381444E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42696.469259259262</v>
       </c>
@@ -17459,23 +16101,27 @@
         <v>3.6</v>
       </c>
       <c r="Q199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14.5</v>
       </c>
       <c r="R199">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48.5</v>
       </c>
       <c r="S199">
+        <f t="shared" si="17"/>
+        <v>3.6</v>
+      </c>
+      <c r="T199" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469259259262</v>
+      </c>
+      <c r="U199">
         <f t="shared" si="14"/>
-        <v>3.6</v>
-      </c>
-      <c r="T199" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469259259262</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.422680412371134E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42696.469317129631</v>
       </c>
@@ -17513,23 +16159,27 @@
         <v>12.7</v>
       </c>
       <c r="Q200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="R200">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>53.5</v>
       </c>
       <c r="S200">
+        <f t="shared" si="17"/>
+        <v>12.7</v>
+      </c>
+      <c r="T200" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469317129631</v>
+      </c>
+      <c r="U200">
         <f t="shared" si="14"/>
-        <v>12.7</v>
-      </c>
-      <c r="T200" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469317129631</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.23738317757009345</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42696.469375000001</v>
       </c>
@@ -17567,23 +16217,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Q201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="R201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="S201">
+        <f t="shared" si="17"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T201" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.469375000001</v>
+      </c>
+      <c r="U201">
         <f t="shared" si="14"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T201" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.469375000001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.5416666666666655E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42696.46943287037</v>
       </c>
@@ -17621,23 +16275,27 @@
         <v>3.7</v>
       </c>
       <c r="Q202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="R202">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47.5</v>
       </c>
       <c r="S202">
+        <f t="shared" si="17"/>
+        <v>3.7</v>
+      </c>
+      <c r="T202" s="2">
+        <f t="shared" si="18"/>
+        <v>42696.46943287037</v>
+      </c>
+      <c r="U202">
         <f t="shared" si="14"/>
-        <v>3.7</v>
-      </c>
-      <c r="T202" s="2">
-        <f t="shared" si="15"/>
-        <v>42696.46943287037</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.7894736842105267E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42696.469490740739</v>
       </c>
@@ -17675,23 +16333,27 @@
         <v>5</v>
       </c>
       <c r="Q203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="R203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>48.5</v>
       </c>
       <c r="S203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="T203" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>42696.469490740739</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U203">
+        <f t="shared" ref="U203:U211" si="19">S203/R203</f>
+        <v>0.10309278350515463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>42696.469548611109</v>
       </c>
@@ -17729,23 +16391,27 @@
         <v>11.4</v>
       </c>
       <c r="Q204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>54.5</v>
       </c>
       <c r="R204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="S204">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11.4</v>
       </c>
       <c r="T204" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>42696.469548611109</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U204">
+        <f t="shared" si="19"/>
+        <v>0.21923076923076923</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>42696.469618055555</v>
       </c>
@@ -17783,23 +16449,27 @@
         <v>6.9</v>
       </c>
       <c r="Q205">
-        <f t="shared" ref="Q205:Q211" si="16">AVERAGE(H205,M205)</f>
+        <f t="shared" ref="Q205:Q211" si="20">AVERAGE(H205,M205)</f>
         <v>24.5</v>
       </c>
       <c r="R205">
-        <f t="shared" ref="R205:R211" si="17">AVERAGE(B205:C205)</f>
+        <f t="shared" ref="R205:R211" si="21">AVERAGE(B205:C205)</f>
         <v>49</v>
       </c>
       <c r="S205">
-        <f t="shared" ref="S205:S211" si="18">O205</f>
+        <f t="shared" ref="S205:S211" si="22">O205</f>
         <v>6.9</v>
       </c>
       <c r="T205" s="2">
-        <f t="shared" ref="T205:T211" si="19">A205</f>
+        <f t="shared" ref="T205:T211" si="23">A205</f>
         <v>42696.469618055555</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U205">
+        <f t="shared" si="19"/>
+        <v>0.14081632653061224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42696.469675925924</v>
       </c>
@@ -17837,23 +16507,27 @@
         <v>4.8</v>
       </c>
       <c r="Q206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="R206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>48.5</v>
       </c>
       <c r="S206">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.8</v>
       </c>
       <c r="T206" s="2">
+        <f t="shared" si="23"/>
+        <v>42696.469675925924</v>
+      </c>
+      <c r="U206">
         <f t="shared" si="19"/>
-        <v>42696.469675925924</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.8969072164948449E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42696.469733796293</v>
       </c>
@@ -17891,23 +16565,27 @@
         <v>6.2</v>
       </c>
       <c r="Q207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="R207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="S207">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6.2</v>
       </c>
       <c r="T207" s="2">
+        <f t="shared" si="23"/>
+        <v>42696.469733796293</v>
+      </c>
+      <c r="U207">
         <f t="shared" si="19"/>
-        <v>42696.469733796293</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42696.46979166667</v>
       </c>
@@ -17945,23 +16623,27 @@
         <v>3.9</v>
       </c>
       <c r="Q208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
       <c r="R208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>48.5</v>
       </c>
       <c r="S208">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.9</v>
       </c>
       <c r="T208" s="2">
+        <f t="shared" si="23"/>
+        <v>42696.46979166667</v>
+      </c>
+      <c r="U208">
         <f t="shared" si="19"/>
-        <v>42696.46979166667</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.041237113402061E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42696.469849537039</v>
       </c>
@@ -17999,23 +16681,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Q209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>29.5</v>
       </c>
       <c r="R209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="S209">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="T209" s="2">
+        <f t="shared" si="23"/>
+        <v>42696.469849537039</v>
+      </c>
+      <c r="U209">
         <f t="shared" si="19"/>
-        <v>42696.469849537039</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+        <v>9.5833333333333326E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>42696.469907407409</v>
       </c>
@@ -18053,23 +16739,27 @@
         <v>15.5</v>
       </c>
       <c r="Q210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>65</v>
       </c>
       <c r="R210">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>52</v>
       </c>
       <c r="S210">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15.5</v>
       </c>
       <c r="T210" s="2">
+        <f t="shared" si="23"/>
+        <v>42696.469907407409</v>
+      </c>
+      <c r="U210">
         <f t="shared" si="19"/>
-        <v>42696.469907407409</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.29807692307692307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42696.469965277778</v>
       </c>
@@ -18107,20 +16797,24 @@
         <v>4.8</v>
       </c>
       <c r="Q211">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="R211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>48.5</v>
       </c>
       <c r="S211">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.8</v>
       </c>
       <c r="T211" s="2">
+        <f t="shared" si="23"/>
+        <v>42696.469965277778</v>
+      </c>
+      <c r="U211">
         <f t="shared" si="19"/>
-        <v>42696.469965277778</v>
+        <v>9.8969072164948449E-2</v>
       </c>
     </row>
   </sheetData>
